--- a/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Driver.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Driver.xlsx
@@ -9,13 +9,27 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Driver-Home" sheetId="1" r:id="rId1"/>
-    <sheet name="Driver-Home Definition" sheetId="3" r:id="rId2"/>
-    <sheet name="Note" sheetId="2" r:id="rId3"/>
+    <sheet name="01.Start" sheetId="4" r:id="rId1"/>
+    <sheet name="01.Start Definition" sheetId="5" r:id="rId2"/>
+    <sheet name="02.Login" sheetId="6" r:id="rId3"/>
+    <sheet name="02.Login Definition" sheetId="7" r:id="rId4"/>
+    <sheet name="03.Home" sheetId="1" r:id="rId5"/>
+    <sheet name="03.Home Definition" sheetId="3" r:id="rId6"/>
+    <sheet name="04.Profile" sheetId="8" r:id="rId7"/>
+    <sheet name="04.Profile Definition" sheetId="9" r:id="rId8"/>
+    <sheet name="Note" sheetId="2" r:id="rId9"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId10"/>
+  </externalReferences>
+  <definedNames>
+    <definedName name="KindOfTaxi" localSheetId="0">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
+    <definedName name="KindOfTaxi" localSheetId="2">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
+    <definedName name="KindOfTaxi" localSheetId="6">'[1]KH - Tạo hành trình'!$I$16:$K$16</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="175">
   <si>
     <t>Mỗi lần gọi sẽ lưu lại lịch sử</t>
   </si>
@@ -215,13 +229,607 @@
   </si>
   <si>
     <t>Điểm Đỗ Xe</t>
+  </si>
+  <si>
+    <t>Chào Mừng Bạn Đã Sử Dụng TaxiNet</t>
+  </si>
+  <si>
+    <t>Image hướng giới thiệu về TaxiNet</t>
+  </si>
+  <si>
+    <t>&lt;&lt; Trước</t>
+  </si>
+  <si>
+    <t>Sau&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Business Rules</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <r>
+      <t>Khi người dùng lựa chọn "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Icon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>của ứng dụng và khởi tạo lần đầu tiên thì màn hình này sẽ được khởi động</t>
+    </r>
+  </si>
+  <si>
+    <t>Khi người dùng tay trượt trên màn hình thì màn hình chuyển sang một slide khác tuần tự theo các tài liệu hướng dẫn sử dụng phần mềm.</t>
+  </si>
+  <si>
+    <t>Biểu Tượng</t>
+  </si>
+  <si>
+    <t>Logo</t>
+  </si>
+  <si>
+    <t>Logo của ứng dụng:</t>
+  </si>
+  <si>
+    <t>Thông điệp</t>
+  </si>
+  <si>
+    <t>Message</t>
+  </si>
+  <si>
+    <t>Hình Ảnh</t>
+  </si>
+  <si>
+    <t>Image</t>
+  </si>
+  <si>
+    <t>Trước</t>
+  </si>
+  <si>
+    <t>Previous</t>
+  </si>
+  <si>
+    <t>button</t>
+  </si>
+  <si>
+    <t>Trở về trang trước</t>
+  </si>
+  <si>
+    <t>Sau</t>
+  </si>
+  <si>
+    <t>Next</t>
+  </si>
+  <si>
+    <t>Sang trang tiếp theo</t>
+  </si>
+  <si>
+    <t>Bỏ Qua</t>
+  </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Bỏ qua bước này để bắt đầu ứng dụng</t>
+  </si>
+  <si>
+    <t>Tìm Chuyến Xe Rẻ</t>
+  </si>
+  <si>
+    <t>Ẩn khi màn hình là Dịch Vụ không phải là taxi</t>
+  </si>
+  <si>
+    <t>Chia sẻ chuyến xe miễn phí</t>
+  </si>
+  <si>
+    <t>Đặt Taxi</t>
+  </si>
+  <si>
+    <t>Đặt taxi đối với hãng taxi</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Taxi</t>
+  </si>
+  <si>
+    <t>Taxi Tải</t>
+  </si>
+  <si>
+    <t>Email:</t>
+  </si>
+  <si>
+    <t>Mật khẩu:</t>
+  </si>
+  <si>
+    <t>Nếu login bằng tk Face thì kô cần xác nhận, nếu bằng số đt thì gửi mã xác nhận cho người dùng.</t>
+  </si>
+  <si>
+    <t>Làm chi tiết hơn màn hình đăng kí cho lái xe, cho người dùng</t>
+  </si>
+  <si>
+    <t>Đăng Ký</t>
+  </si>
+  <si>
+    <t>Quên Mật Khẩu</t>
+  </si>
+  <si>
+    <r>
+      <t>Khi người dùng lựa chọn "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đăng Nhập</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" nếu người dùng chưa nhập tài khoản hoặc mật khẩu. Phần mềm cần hiển thị thông báo có ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CMS001</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khi người dùng lựa chọn "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đăng Ký</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" phần mềm sẽ hiển thị màn hình </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Register</t>
+    </r>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Dùng làm tài khoản đăng nhập</t>
+  </si>
+  <si>
+    <t>Mật Khẩu</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Mật khẩu truy cập</t>
+  </si>
+  <si>
+    <t>Đăng Nhập</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Register</t>
+  </si>
+  <si>
+    <t>Link to Register screen</t>
+  </si>
+  <si>
+    <t>Forgot password</t>
+  </si>
+  <si>
+    <t>Link to "Forgot Password" screen</t>
+  </si>
+  <si>
+    <t>QUAY LẠI</t>
+  </si>
+  <si>
+    <t>HỒ SƠ</t>
+  </si>
+  <si>
+    <t>SỬA</t>
+  </si>
+  <si>
+    <t>Ảnh</t>
+  </si>
+  <si>
+    <t>Thắng</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn</t>
+  </si>
+  <si>
+    <t>TÀI KHOẢN</t>
+  </si>
+  <si>
+    <t>Di Động:</t>
+  </si>
+  <si>
+    <t>Mật Khẩu:</t>
+  </si>
+  <si>
+    <t>TÀI KHOẢN ĐÃ KẾT NỐI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Kết nối Spotify</t>
+  </si>
+  <si>
+    <t>Lịch sử chuyến đi</t>
+  </si>
+  <si>
+    <t>ĐỊA ĐIỂM THƯỜNG DÙNG</t>
+  </si>
+  <si>
+    <t>Incon</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thêm nhà riêng                                           &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Thêm Công Việc                                          &gt;</t>
+  </si>
+  <si>
+    <r>
+      <t>Khi người dùng lựa chọn "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Đăng Ký</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">" nếu người dùng chưa nhập thông tin thanh toán. Phần mềm cần hiển thị thông báo có ID: </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">CMS002 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">cho các trường bắt buộc mà chưa nhập thông tin.
+ Sau khi đăng ký thành công, màn hình </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Home</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> sẽ hiển thị lên</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khi người dùng lựa chọn "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Điều Khoản Sử Dụng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" phần mềm sẽ hiển thị màn hình "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Terms &amp; Conditions"</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khi người dùng lựa chon nút "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Thêm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>", phần mềm sẽ thêm một dòng mới cho phép người dùng thêm thông tin về thanh toán</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Khi người dùng lựa chọn "</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hủy Bỏ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>" phần mềm sẽ hiển thị màn hình "Login"</t>
+    </r>
+  </si>
+  <si>
+    <t>PROFILE</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>Quay Lại</t>
+  </si>
+  <si>
+    <t>Back</t>
+  </si>
+  <si>
+    <t>Trở lại màn hình Menu</t>
+  </si>
+  <si>
+    <t>Sửa</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sang trang sửa hồ sơ </t>
+  </si>
+  <si>
+    <t>Tên</t>
+  </si>
+  <si>
+    <t>First Name</t>
+  </si>
+  <si>
+    <t>Tên của người sử dụng</t>
+  </si>
+  <si>
+    <t>Họ</t>
+  </si>
+  <si>
+    <t>Family Name</t>
+  </si>
+  <si>
+    <t>Họ và  Tên Đệm của người sử dụng</t>
+  </si>
+  <si>
+    <t>Hiển thị email của người sử dụng</t>
+  </si>
+  <si>
+    <t>Di Động</t>
+  </si>
+  <si>
+    <t>Mobile No</t>
+  </si>
+  <si>
+    <t>Hiển thị số di động của người sử dụng</t>
+  </si>
+  <si>
+    <t>Hiển thị mật khẩu bằng các dấu "*"</t>
+  </si>
+  <si>
+    <t>Kết nối Spotify</t>
+  </si>
+  <si>
+    <t>Connect to Spotify</t>
+  </si>
+  <si>
+    <t>Hyperlink</t>
+  </si>
+  <si>
+    <t>Link to Spotify</t>
+  </si>
+  <si>
+    <t>Lịch Sử Chuyến Đi</t>
+  </si>
+  <si>
+    <t>Journey History</t>
+  </si>
+  <si>
+    <t>Link to "Lịch Sử Chuyến Đi" screen</t>
+  </si>
+  <si>
+    <t>Đăng Xuất</t>
+  </si>
+  <si>
+    <t>Logout</t>
+  </si>
+  <si>
+    <t>Trở lại màn hình Login</t>
+  </si>
+  <si>
+    <t>Địa Chỉ Làm Việc</t>
+  </si>
+  <si>
+    <t>Office Address</t>
+  </si>
+  <si>
+    <t>Hiển thị địa chỉ nơi làm việc, có liên kết sang màn hình thêm địa chỉ</t>
+  </si>
+  <si>
+    <t>Địa chỉ Nhà Riêng</t>
+  </si>
+  <si>
+    <t>Home Address</t>
+  </si>
+  <si>
+    <t>Hiển thị địa chỉ nhà riêng, có liên kết sang màn hình thêm địa chỉ</t>
+  </si>
+  <si>
+    <t>MDV01</t>
+  </si>
+  <si>
+    <t>MDV02</t>
+  </si>
+  <si>
+    <t>Start</t>
+  </si>
+  <si>
+    <t>MDV04</t>
+  </si>
+  <si>
+    <t>Profile</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -269,6 +877,74 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="36"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Microsoft Sans Serif"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -302,7 +978,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="54">
     <border>
       <left/>
       <right/>
@@ -562,12 +1238,370 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -615,6 +1649,8 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -633,10 +1669,131 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
@@ -654,6 +1811,182 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Process 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="771525" y="4057650"/>
+          <a:ext cx="2428875" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bỏ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Qua Bước Này Để </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Bắt</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Đầu</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Process 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="904875" y="2571750"/>
+          <a:ext cx="2457450" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Đăng</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> nhập</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -754,6 +2087,488 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123826</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Process 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="704850" y="4114801"/>
+          <a:ext cx="2609851" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Đăng Xuất</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Process 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1333499" y="2105025"/>
+          <a:ext cx="1952625" cy="190500"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Flowchart: Process 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="1638300"/>
+          <a:ext cx="1933574" cy="180975"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Flowchart: Process 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="3533775"/>
+          <a:ext cx="266700" cy="209550"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Flowchart: Process 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1343025" y="1857374"/>
+          <a:ext cx="1943100" cy="219076"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="Flowchart: Process 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685799" y="3762375"/>
+          <a:ext cx="257175" cy="219075"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Flowchart: Process 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="685800" y="2638425"/>
+          <a:ext cx="266700" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg2"/>
+        </a:solidFill>
+        <a:ln w="12700"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="700" b="1">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>i</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="KH- Đăng kí"/>
+      <sheetName val="Khách hàng - Màn hình chính"/>
+      <sheetName val="KH - Bổ sung thông tin"/>
+      <sheetName val="KH - Chi tiết gửi yêu cầu "/>
+      <sheetName val="KH - Lái xe yêu thích"/>
+      <sheetName val="KH - Tạo hành trình"/>
+      <sheetName val="KH - Tạo yêu cầu"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5">
+        <row r="16">
+          <cell r="I16" t="str">
+            <v>Taxi tải, taxi 4 chỗ, 7 chỗ , 10 chỗ ...(dropbox)</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="6" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1019,9 +2834,3011 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AQ43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="2.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="4.42578125" customWidth="1"/>
+    <col min="11" max="11" width="2.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="20" width="4.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" customWidth="1"/>
+    <col min="25" max="26" width="4.140625" customWidth="1"/>
+    <col min="27" max="27" width="3.85546875" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" customWidth="1"/>
+    <col min="34" max="35" width="3.85546875" customWidth="1"/>
+    <col min="36" max="36" width="4.140625" customWidth="1"/>
+    <col min="37" max="37" width="4.28515625" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" customWidth="1"/>
+    <col min="41" max="41" width="3.85546875" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="49" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+      <c r="G4" s="49"/>
+      <c r="H4" s="49"/>
+      <c r="I4" s="49"/>
+      <c r="J4" s="49"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="49"/>
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="49"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="48"/>
+      <c r="C10" s="49"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="48"/>
+      <c r="C12" s="49"/>
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="52"/>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="48"/>
+      <c r="C13" s="49"/>
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+      <c r="G13" s="49"/>
+      <c r="H13" s="49"/>
+      <c r="I13" s="49"/>
+      <c r="J13" s="49"/>
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B14" s="48"/>
+      <c r="C14" s="49"/>
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+      <c r="G14" s="49"/>
+      <c r="H14" s="49"/>
+      <c r="I14" s="49"/>
+      <c r="J14" s="49"/>
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
+      <c r="G16" s="49"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="49"/>
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="49"/>
+      <c r="K18" s="52"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B19" s="48"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
+      <c r="G19" s="49"/>
+      <c r="H19" s="49"/>
+      <c r="I19" s="49"/>
+      <c r="J19" s="49"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B20" s="48"/>
+      <c r="C20" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="53" t="s">
+        <v>66</v>
+      </c>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B21" s="48"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B22" s="48"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="53"/>
+      <c r="J22" s="53"/>
+      <c r="K22" s="50"/>
+    </row>
+    <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="54"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="55"/>
+      <c r="J23" s="55"/>
+      <c r="K23" s="56"/>
+    </row>
+    <row r="29" spans="1:43" s="60" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="57"/>
+      <c r="B29" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29"/>
+      <c r="D29"/>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="J29"/>
+      <c r="K29"/>
+      <c r="L29"/>
+      <c r="M29"/>
+      <c r="N29"/>
+      <c r="O29"/>
+      <c r="P29"/>
+      <c r="Q29" s="59"/>
+      <c r="R29"/>
+      <c r="S29" s="59"/>
+    </row>
+    <row r="30" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="62"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="64"/>
+    </row>
+    <row r="31" spans="1:43" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="65">
+        <v>1</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="67"/>
+    </row>
+    <row r="32" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="68">
+        <v>2</v>
+      </c>
+      <c r="C32" s="69" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="69"/>
+      <c r="E32" s="69"/>
+      <c r="F32" s="69"/>
+      <c r="G32" s="69"/>
+      <c r="H32" s="69"/>
+      <c r="I32" s="69"/>
+      <c r="J32" s="69"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
+      <c r="M32" s="70"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="67"/>
+    </row>
+    <row r="33" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="66"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="67"/>
+    </row>
+    <row r="34" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="1"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="67"/>
+    </row>
+    <row r="35" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="66"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="67"/>
+    </row>
+    <row r="36" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="1"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="67"/>
+    </row>
+    <row r="37" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="66"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="67"/>
+    </row>
+    <row r="38" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="66"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="67"/>
+    </row>
+    <row r="39" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="66"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="66"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="67"/>
+    </row>
+    <row r="40" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="66"/>
+      <c r="AM40" s="66"/>
+      <c r="AN40" s="66"/>
+      <c r="AO40" s="66"/>
+      <c r="AP40" s="66"/>
+      <c r="AQ40" s="67"/>
+    </row>
+    <row r="41" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="66"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="66"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="66"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="67"/>
+    </row>
+    <row r="42" spans="1:43" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="57"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="76"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+      <c r="K42" s="76"/>
+      <c r="L42" s="76"/>
+      <c r="M42" s="76"/>
+      <c r="N42" s="76"/>
+      <c r="O42" s="76"/>
+      <c r="P42" s="76"/>
+      <c r="Q42" s="77"/>
+      <c r="R42" s="77"/>
+      <c r="S42" s="77"/>
+      <c r="T42" s="77"/>
+      <c r="U42" s="77"/>
+      <c r="V42" s="77"/>
+      <c r="W42" s="77"/>
+      <c r="X42" s="77"/>
+      <c r="Y42" s="77"/>
+      <c r="Z42" s="77"/>
+      <c r="AA42" s="77"/>
+      <c r="AB42" s="77"/>
+      <c r="AC42" s="77"/>
+      <c r="AD42" s="77"/>
+      <c r="AE42" s="77"/>
+      <c r="AF42" s="77"/>
+      <c r="AG42" s="77"/>
+      <c r="AH42" s="77"/>
+      <c r="AI42" s="77"/>
+      <c r="AJ42" s="77"/>
+      <c r="AK42" s="77"/>
+      <c r="AL42" s="77"/>
+      <c r="AM42" s="77"/>
+      <c r="AN42" s="77"/>
+      <c r="AO42" s="77"/>
+      <c r="AP42" s="77"/>
+      <c r="AQ42" s="78"/>
+    </row>
+    <row r="43" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+      <c r="G43"/>
+      <c r="H43"/>
+      <c r="I43"/>
+      <c r="J43"/>
+      <c r="K43"/>
+      <c r="L43"/>
+      <c r="M43"/>
+      <c r="N43"/>
+      <c r="O43"/>
+      <c r="P43"/>
+      <c r="Q43" s="66"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C4:J19"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="79" t="s">
+        <v>172</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="16"/>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="15">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>6</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="27">
+        <v>0</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="80">
+        <v>3</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" location="'Rider- Start'!A1" display="Rider - Start"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AQ42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="4" customWidth="1"/>
+    <col min="5" max="5" width="4.28515625" customWidth="1"/>
+    <col min="6" max="8" width="4.42578125" customWidth="1"/>
+    <col min="9" max="9" width="4.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
+    <col min="11" max="11" width="4" customWidth="1"/>
+    <col min="12" max="12" width="5" customWidth="1"/>
+    <col min="13" max="13" width="4.5703125" customWidth="1"/>
+    <col min="14" max="14" width="4.140625" customWidth="1"/>
+    <col min="15" max="15" width="3.85546875" customWidth="1"/>
+    <col min="16" max="16" width="4.85546875" customWidth="1"/>
+    <col min="17" max="17" width="4.42578125" customWidth="1"/>
+    <col min="18" max="18" width="5" customWidth="1"/>
+    <col min="19" max="20" width="4.7109375" customWidth="1"/>
+    <col min="21" max="21" width="3.5703125" customWidth="1"/>
+    <col min="22" max="22" width="4" customWidth="1"/>
+    <col min="23" max="23" width="4.28515625" customWidth="1"/>
+    <col min="24" max="24" width="3.5703125" customWidth="1"/>
+    <col min="25" max="25" width="5.28515625" customWidth="1"/>
+    <col min="26" max="26" width="4.140625" customWidth="1"/>
+    <col min="27" max="27" width="3.85546875" customWidth="1"/>
+    <col min="28" max="28" width="3.7109375" customWidth="1"/>
+    <col min="29" max="29" width="4" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="31" width="4.7109375" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" customWidth="1"/>
+    <col min="33" max="33" width="4.28515625" customWidth="1"/>
+    <col min="34" max="35" width="3.85546875" customWidth="1"/>
+    <col min="36" max="36" width="4.140625" customWidth="1"/>
+    <col min="37" max="37" width="4.28515625" customWidth="1"/>
+    <col min="38" max="38" width="4.85546875" customWidth="1"/>
+    <col min="39" max="39" width="5.28515625" customWidth="1"/>
+    <col min="40" max="40" width="4.7109375" customWidth="1"/>
+    <col min="41" max="41" width="3.85546875" customWidth="1"/>
+    <col min="42" max="42" width="4.42578125" customWidth="1"/>
+    <col min="43" max="43" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="47"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="82"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="83"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="83"/>
+      <c r="D6" s="83"/>
+      <c r="E6" s="83"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="83"/>
+      <c r="H6" s="83"/>
+      <c r="I6" s="83"/>
+      <c r="J6" s="83"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="53"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="53"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="48"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="53"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="48"/>
+      <c r="C10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="84"/>
+      <c r="G10" s="85"/>
+      <c r="H10" s="85"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="86"/>
+      <c r="K10" s="51"/>
+    </row>
+    <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="48"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="52"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="48"/>
+      <c r="C12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="89"/>
+      <c r="K12" s="51"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B13" s="48"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="52"/>
+      <c r="N13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="48"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="52"/>
+      <c r="N14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="52"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="90" t="s">
+        <v>100</v>
+      </c>
+      <c r="D16" s="90"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="91" t="s">
+        <v>101</v>
+      </c>
+      <c r="G16" s="91"/>
+      <c r="H16" s="91"/>
+      <c r="I16" s="91"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="52"/>
+    </row>
+    <row r="18" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="53"/>
+      <c r="K18" s="50"/>
+    </row>
+    <row r="19" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B19" s="48"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="53"/>
+      <c r="K19" s="50"/>
+    </row>
+    <row r="20" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B20" s="48"/>
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="53"/>
+      <c r="I20" s="53"/>
+      <c r="J20" s="53"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="B21" s="48"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="53"/>
+      <c r="J21" s="53"/>
+      <c r="K21" s="50"/>
+    </row>
+    <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="54"/>
+      <c r="C22" s="55"/>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="55"/>
+      <c r="J22" s="55"/>
+      <c r="K22" s="56"/>
+    </row>
+    <row r="28" spans="1:43" s="60" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="57"/>
+      <c r="B28" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28"/>
+      <c r="D28"/>
+      <c r="E28"/>
+      <c r="F28"/>
+      <c r="G28"/>
+      <c r="H28"/>
+      <c r="I28"/>
+      <c r="J28"/>
+      <c r="K28"/>
+      <c r="L28"/>
+      <c r="M28"/>
+      <c r="N28"/>
+      <c r="O28"/>
+      <c r="P28"/>
+      <c r="Q28" s="59"/>
+      <c r="R28"/>
+      <c r="S28" s="59"/>
+    </row>
+    <row r="29" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="64"/>
+    </row>
+    <row r="30" spans="1:43" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="65">
+        <v>1</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="66"/>
+      <c r="U30" s="66"/>
+      <c r="V30" s="66"/>
+      <c r="W30" s="66"/>
+      <c r="X30" s="66"/>
+      <c r="Y30" s="66"/>
+      <c r="Z30" s="66"/>
+      <c r="AA30" s="66"/>
+      <c r="AB30" s="66"/>
+      <c r="AC30" s="66"/>
+      <c r="AD30" s="66"/>
+      <c r="AE30" s="66"/>
+      <c r="AF30" s="66"/>
+      <c r="AG30" s="66"/>
+      <c r="AH30" s="66"/>
+      <c r="AI30" s="66"/>
+      <c r="AJ30" s="66"/>
+      <c r="AK30" s="66"/>
+      <c r="AL30" s="66"/>
+      <c r="AM30" s="66"/>
+      <c r="AN30" s="66"/>
+      <c r="AO30" s="66"/>
+      <c r="AP30" s="66"/>
+      <c r="AQ30" s="67"/>
+    </row>
+    <row r="31" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="68">
+        <v>2</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31" s="69"/>
+      <c r="E31" s="69"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="69"/>
+      <c r="K31" s="69"/>
+      <c r="L31" s="69"/>
+      <c r="M31" s="70"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="66"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="66"/>
+      <c r="T31" s="66"/>
+      <c r="U31" s="66"/>
+      <c r="V31" s="66"/>
+      <c r="W31" s="66"/>
+      <c r="X31" s="66"/>
+      <c r="Y31" s="66"/>
+      <c r="Z31" s="66"/>
+      <c r="AA31" s="66"/>
+      <c r="AB31" s="66"/>
+      <c r="AC31" s="66"/>
+      <c r="AD31" s="66"/>
+      <c r="AE31" s="66"/>
+      <c r="AF31" s="66"/>
+      <c r="AG31" s="66"/>
+      <c r="AH31" s="66"/>
+      <c r="AI31" s="66"/>
+      <c r="AJ31" s="66"/>
+      <c r="AK31" s="66"/>
+      <c r="AL31" s="66"/>
+      <c r="AM31" s="66"/>
+      <c r="AN31" s="66"/>
+      <c r="AO31" s="66"/>
+      <c r="AP31" s="66"/>
+      <c r="AQ31" s="67"/>
+    </row>
+    <row r="32" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="1"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="2"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="66"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="66"/>
+      <c r="T32" s="66"/>
+      <c r="U32" s="66"/>
+      <c r="V32" s="66"/>
+      <c r="W32" s="66"/>
+      <c r="X32" s="66"/>
+      <c r="Y32" s="66"/>
+      <c r="Z32" s="66"/>
+      <c r="AA32" s="66"/>
+      <c r="AB32" s="66"/>
+      <c r="AC32" s="66"/>
+      <c r="AD32" s="66"/>
+      <c r="AE32" s="66"/>
+      <c r="AF32" s="66"/>
+      <c r="AG32" s="66"/>
+      <c r="AH32" s="66"/>
+      <c r="AI32" s="66"/>
+      <c r="AJ32" s="66"/>
+      <c r="AK32" s="66"/>
+      <c r="AL32" s="66"/>
+      <c r="AM32" s="66"/>
+      <c r="AN32" s="66"/>
+      <c r="AO32" s="66"/>
+      <c r="AP32" s="66"/>
+      <c r="AQ32" s="67"/>
+    </row>
+    <row r="33" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="72"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="66"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="66"/>
+      <c r="T33" s="66"/>
+      <c r="U33" s="66"/>
+      <c r="V33" s="66"/>
+      <c r="W33" s="66"/>
+      <c r="X33" s="66"/>
+      <c r="Y33" s="66"/>
+      <c r="Z33" s="66"/>
+      <c r="AA33" s="66"/>
+      <c r="AB33" s="66"/>
+      <c r="AC33" s="66"/>
+      <c r="AD33" s="66"/>
+      <c r="AE33" s="66"/>
+      <c r="AF33" s="66"/>
+      <c r="AG33" s="66"/>
+      <c r="AH33" s="66"/>
+      <c r="AI33" s="66"/>
+      <c r="AJ33" s="66"/>
+      <c r="AK33" s="66"/>
+      <c r="AL33" s="66"/>
+      <c r="AM33" s="66"/>
+      <c r="AN33" s="66"/>
+      <c r="AO33" s="66"/>
+      <c r="AP33" s="66"/>
+      <c r="AQ33" s="67"/>
+    </row>
+    <row r="34" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="73"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="2"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="66"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="66"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="67"/>
+    </row>
+    <row r="35" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="1"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="66"/>
+      <c r="G35" s="66"/>
+      <c r="H35" s="66"/>
+      <c r="I35" s="66"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="66"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="66"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="66"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="67"/>
+    </row>
+    <row r="36" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="66"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="66"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="67"/>
+    </row>
+    <row r="37" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="66"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="66"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="66"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="67"/>
+    </row>
+    <row r="38" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="65"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="66"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="66"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="66"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="67"/>
+    </row>
+    <row r="39" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="65"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="66"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="66"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="66"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="67"/>
+    </row>
+    <row r="40" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="65"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="66"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="66"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="66"/>
+      <c r="AM40" s="66"/>
+      <c r="AN40" s="66"/>
+      <c r="AO40" s="66"/>
+      <c r="AP40" s="66"/>
+      <c r="AQ40" s="67"/>
+    </row>
+    <row r="41" spans="1:43" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="57"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="76"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+      <c r="K41" s="76"/>
+      <c r="L41" s="76"/>
+      <c r="M41" s="76"/>
+      <c r="N41" s="76"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="77"/>
+      <c r="R41" s="77"/>
+      <c r="S41" s="77"/>
+      <c r="T41" s="77"/>
+      <c r="U41" s="77"/>
+      <c r="V41" s="77"/>
+      <c r="W41" s="77"/>
+      <c r="X41" s="77"/>
+      <c r="Y41" s="77"/>
+      <c r="Z41" s="77"/>
+      <c r="AA41" s="77"/>
+      <c r="AB41" s="77"/>
+      <c r="AC41" s="77"/>
+      <c r="AD41" s="77"/>
+      <c r="AE41" s="77"/>
+      <c r="AF41" s="77"/>
+      <c r="AG41" s="77"/>
+      <c r="AH41" s="77"/>
+      <c r="AI41" s="77"/>
+      <c r="AJ41" s="77"/>
+      <c r="AK41" s="77"/>
+      <c r="AL41" s="77"/>
+      <c r="AM41" s="77"/>
+      <c r="AN41" s="77"/>
+      <c r="AO41" s="77"/>
+      <c r="AP41" s="77"/>
+      <c r="AQ41" s="78"/>
+    </row>
+    <row r="42" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+      <c r="G42"/>
+      <c r="H42"/>
+      <c r="I42"/>
+      <c r="J42"/>
+      <c r="K42"/>
+      <c r="L42"/>
+      <c r="M42"/>
+      <c r="N42"/>
+      <c r="O42"/>
+      <c r="P42"/>
+      <c r="Q42" s="66"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C4:J6"/>
+    <mergeCell ref="F10:J10"/>
+    <mergeCell ref="F12:J12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C16" location="'Rider- Register'!A1" display="Đăng Ký"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="79" t="s">
+        <v>110</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="16">
+        <v>50</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="16">
+        <v>30</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="15">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16"/>
+      <c r="H9" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16"/>
+      <c r="H10" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>6</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16"/>
+      <c r="H11" s="17" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="17"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="15"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="15"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="15"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="27">
+        <v>0</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="80">
+        <v>3</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" location="'Rider- Login'!A1" display="Rider - Login"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -1037,14 +5854,14 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="D4" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="43" t="s">
+      <c r="E4" s="39"/>
+      <c r="F4" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="G4" s="44"/>
+      <c r="G4" s="38"/>
     </row>
     <row r="5" spans="3:7" x14ac:dyDescent="0.25">
       <c r="C5" s="1"/>
@@ -1142,7 +5959,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="40" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -1152,7 +5969,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="39"/>
+      <c r="C21" s="41"/>
       <c r="D21" s="35" t="s">
         <v>49</v>
       </c>
@@ -1202,7 +6019,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H44"/>
   <sheetViews>
@@ -1225,15 +6042,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -1704,7 +6521,1755 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:AS45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="1.140625" customWidth="1"/>
+    <col min="3" max="3" width="4.42578125" customWidth="1"/>
+    <col min="4" max="5" width="4" customWidth="1"/>
+    <col min="6" max="6" width="1.140625" customWidth="1"/>
+    <col min="7" max="9" width="4.42578125" customWidth="1"/>
+    <col min="10" max="11" width="4.140625" customWidth="1"/>
+    <col min="12" max="12" width="3.85546875" customWidth="1"/>
+    <col min="13" max="13" width="1.28515625" customWidth="1"/>
+    <col min="14" max="14" width="5" customWidth="1"/>
+    <col min="15" max="15" width="4.5703125" customWidth="1"/>
+    <col min="16" max="16" width="4.140625" customWidth="1"/>
+    <col min="17" max="17" width="3.85546875" customWidth="1"/>
+    <col min="18" max="18" width="4.85546875" customWidth="1"/>
+    <col min="19" max="19" width="4.42578125" customWidth="1"/>
+    <col min="20" max="20" width="5" customWidth="1"/>
+    <col min="21" max="22" width="4.7109375" customWidth="1"/>
+    <col min="23" max="23" width="3.5703125" customWidth="1"/>
+    <col min="24" max="24" width="4" customWidth="1"/>
+    <col min="25" max="25" width="4.28515625" customWidth="1"/>
+    <col min="26" max="26" width="3.5703125" customWidth="1"/>
+    <col min="27" max="27" width="5.28515625" customWidth="1"/>
+    <col min="28" max="28" width="4.140625" customWidth="1"/>
+    <col min="29" max="29" width="3.85546875" customWidth="1"/>
+    <col min="30" max="30" width="3.7109375" customWidth="1"/>
+    <col min="31" max="31" width="4" customWidth="1"/>
+    <col min="32" max="32" width="3.7109375" customWidth="1"/>
+    <col min="33" max="33" width="4.7109375" customWidth="1"/>
+    <col min="34" max="34" width="3.7109375" customWidth="1"/>
+    <col min="35" max="35" width="4.28515625" customWidth="1"/>
+    <col min="36" max="37" width="3.85546875" customWidth="1"/>
+    <col min="38" max="38" width="4.140625" customWidth="1"/>
+    <col min="39" max="39" width="4.28515625" customWidth="1"/>
+    <col min="40" max="40" width="4.85546875" customWidth="1"/>
+    <col min="41" max="41" width="5.28515625" customWidth="1"/>
+    <col min="42" max="42" width="4.7109375" customWidth="1"/>
+    <col min="43" max="43" width="3.85546875" customWidth="1"/>
+    <col min="44" max="44" width="4.42578125" customWidth="1"/>
+    <col min="45" max="45" width="4.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="45" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92" t="s">
+        <v>117</v>
+      </c>
+      <c r="K3" s="92"/>
+      <c r="L3" s="92"/>
+      <c r="M3" s="93"/>
+    </row>
+    <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="48"/>
+      <c r="C4" s="94"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="94"/>
+      <c r="F4" s="94"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="94"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="94"/>
+      <c r="M4" s="50"/>
+    </row>
+    <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="48"/>
+      <c r="C5" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="96" t="s">
+        <v>119</v>
+      </c>
+      <c r="H5" s="96"/>
+      <c r="I5" s="96"/>
+      <c r="J5" s="96"/>
+      <c r="K5" s="96"/>
+      <c r="L5" s="96"/>
+      <c r="M5" s="50"/>
+    </row>
+    <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="48"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94"/>
+      <c r="I6" s="94"/>
+      <c r="J6" s="94"/>
+      <c r="K6" s="94"/>
+      <c r="L6" s="94"/>
+      <c r="M6" s="50"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="48"/>
+      <c r="C7" s="95"/>
+      <c r="D7" s="95"/>
+      <c r="E7" s="95"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="97" t="s">
+        <v>120</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="97"/>
+      <c r="K7" s="97"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="50"/>
+    </row>
+    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="48"/>
+      <c r="C8" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="98"/>
+      <c r="I8" s="98"/>
+      <c r="J8" s="98"/>
+      <c r="K8" s="98"/>
+      <c r="L8" s="98"/>
+      <c r="M8" s="51"/>
+    </row>
+    <row r="9" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="48"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="52"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B10" s="48"/>
+      <c r="C10" s="99" t="s">
+        <v>96</v>
+      </c>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="101"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="101"/>
+      <c r="K10" s="101"/>
+      <c r="L10" s="102"/>
+      <c r="M10" s="51"/>
+    </row>
+    <row r="11" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="48"/>
+      <c r="C11" s="72"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="98"/>
+      <c r="I11" s="98"/>
+      <c r="J11" s="98"/>
+      <c r="K11" s="98"/>
+      <c r="L11" s="103"/>
+      <c r="M11" s="51"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B12" s="48"/>
+      <c r="C12" s="72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="98"/>
+      <c r="I12" s="98"/>
+      <c r="J12" s="98"/>
+      <c r="K12" s="98"/>
+      <c r="L12" s="103"/>
+      <c r="M12" s="52"/>
+    </row>
+    <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="48"/>
+      <c r="C13" s="72" t="s">
+        <v>123</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="98"/>
+      <c r="I13" s="98"/>
+      <c r="J13" s="98"/>
+      <c r="K13" s="98"/>
+      <c r="L13" s="103"/>
+      <c r="M13" s="52"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B14" s="48"/>
+      <c r="C14" s="104"/>
+      <c r="D14" s="105"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="105"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
+      <c r="J14" s="106"/>
+      <c r="K14" s="106"/>
+      <c r="L14" s="107"/>
+      <c r="M14" s="52"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B15" s="48"/>
+      <c r="C15" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="98"/>
+      <c r="I15" s="98"/>
+      <c r="J15" s="98"/>
+      <c r="K15" s="98"/>
+      <c r="L15" s="98"/>
+      <c r="M15" s="52"/>
+    </row>
+    <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="48"/>
+      <c r="C16" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" s="109"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="109"/>
+      <c r="H16" s="109"/>
+      <c r="I16" s="109"/>
+      <c r="J16" s="109"/>
+      <c r="K16" s="109"/>
+      <c r="L16" s="110"/>
+      <c r="M16" s="52"/>
+    </row>
+    <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="48"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="98"/>
+      <c r="I17" s="98"/>
+      <c r="J17" s="98"/>
+      <c r="K17" s="98"/>
+      <c r="L17" s="98"/>
+      <c r="M17" s="52"/>
+    </row>
+    <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="48"/>
+      <c r="C18" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="112"/>
+      <c r="H18" s="112"/>
+      <c r="I18" s="112"/>
+      <c r="J18" s="112"/>
+      <c r="K18" s="112"/>
+      <c r="L18" s="113"/>
+      <c r="M18" s="52"/>
+    </row>
+    <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="48"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="52"/>
+    </row>
+    <row r="20" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B20" s="48"/>
+      <c r="C20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="52"/>
+    </row>
+    <row r="21" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="48"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="52"/>
+    </row>
+    <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="48"/>
+      <c r="C22" s="114" t="s">
+        <v>128</v>
+      </c>
+      <c r="D22" s="112" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="112"/>
+      <c r="F22" s="112"/>
+      <c r="G22" s="112"/>
+      <c r="H22" s="112"/>
+      <c r="I22" s="112"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="112"/>
+      <c r="L22" s="113"/>
+      <c r="M22" s="52"/>
+    </row>
+    <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="48"/>
+      <c r="C23" s="115" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" s="116" t="s">
+        <v>130</v>
+      </c>
+      <c r="E23" s="116"/>
+      <c r="F23" s="116"/>
+      <c r="G23" s="116"/>
+      <c r="H23" s="116"/>
+      <c r="I23" s="116"/>
+      <c r="J23" s="116"/>
+      <c r="K23" s="116"/>
+      <c r="L23" s="117"/>
+      <c r="M23" s="50"/>
+    </row>
+    <row r="24" spans="1:45" x14ac:dyDescent="0.25">
+      <c r="B24" s="48"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="53"/>
+      <c r="M24" s="50"/>
+    </row>
+    <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+      <c r="H25" s="55"/>
+      <c r="I25" s="55"/>
+      <c r="J25" s="55"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
+      <c r="M25" s="56"/>
+    </row>
+    <row r="31" spans="1:45" s="60" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="57"/>
+      <c r="B31" s="58" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31"/>
+      <c r="D31"/>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+      <c r="J31"/>
+      <c r="K31"/>
+      <c r="L31"/>
+      <c r="M31"/>
+      <c r="N31"/>
+      <c r="O31"/>
+      <c r="P31"/>
+      <c r="Q31"/>
+      <c r="R31"/>
+      <c r="S31" s="59"/>
+      <c r="T31"/>
+      <c r="U31" s="59"/>
+    </row>
+    <row r="32" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="62" t="s">
+        <v>16</v>
+      </c>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="62"/>
+      <c r="AK32" s="62"/>
+      <c r="AL32" s="62"/>
+      <c r="AM32" s="62"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="64"/>
+    </row>
+    <row r="33" spans="1:45" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="65">
+        <v>1</v>
+      </c>
+      <c r="C33" s="118" t="s">
+        <v>131</v>
+      </c>
+      <c r="D33" s="119"/>
+      <c r="E33" s="119"/>
+      <c r="F33" s="119"/>
+      <c r="G33" s="119"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="119"/>
+      <c r="J33" s="119"/>
+      <c r="K33" s="119"/>
+      <c r="L33" s="119"/>
+      <c r="M33" s="119"/>
+      <c r="N33" s="119"/>
+      <c r="O33" s="119"/>
+      <c r="P33" s="119"/>
+      <c r="Q33" s="119"/>
+      <c r="R33" s="119"/>
+      <c r="S33" s="119"/>
+      <c r="T33" s="119"/>
+      <c r="U33" s="119"/>
+      <c r="V33" s="119"/>
+      <c r="W33" s="119"/>
+      <c r="X33" s="119"/>
+      <c r="Y33" s="119"/>
+      <c r="Z33" s="119"/>
+      <c r="AA33" s="119"/>
+      <c r="AB33" s="119"/>
+      <c r="AC33" s="119"/>
+      <c r="AD33" s="119"/>
+      <c r="AE33" s="119"/>
+      <c r="AF33" s="119"/>
+      <c r="AG33" s="119"/>
+      <c r="AH33" s="119"/>
+      <c r="AI33" s="119"/>
+      <c r="AJ33" s="119"/>
+      <c r="AK33" s="119"/>
+      <c r="AL33" s="119"/>
+      <c r="AM33" s="119"/>
+      <c r="AN33" s="119"/>
+      <c r="AO33" s="119"/>
+      <c r="AP33" s="119"/>
+      <c r="AQ33" s="119"/>
+      <c r="AR33" s="119"/>
+      <c r="AS33" s="120"/>
+    </row>
+    <row r="34" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="68">
+        <v>2</v>
+      </c>
+      <c r="C34" s="69" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" s="69"/>
+      <c r="E34" s="69"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
+      <c r="I34" s="69"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
+      <c r="M34" s="69"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="70"/>
+      <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="66"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="66"/>
+      <c r="V34" s="66"/>
+      <c r="W34" s="66"/>
+      <c r="X34" s="66"/>
+      <c r="Y34" s="66"/>
+      <c r="Z34" s="66"/>
+      <c r="AA34" s="66"/>
+      <c r="AB34" s="66"/>
+      <c r="AC34" s="66"/>
+      <c r="AD34" s="66"/>
+      <c r="AE34" s="66"/>
+      <c r="AF34" s="66"/>
+      <c r="AG34" s="66"/>
+      <c r="AH34" s="66"/>
+      <c r="AI34" s="66"/>
+      <c r="AJ34" s="66"/>
+      <c r="AK34" s="66"/>
+      <c r="AL34" s="66"/>
+      <c r="AM34" s="66"/>
+      <c r="AN34" s="66"/>
+      <c r="AO34" s="66"/>
+      <c r="AP34" s="66"/>
+      <c r="AQ34" s="66"/>
+      <c r="AR34" s="66"/>
+      <c r="AS34" s="67"/>
+    </row>
+    <row r="35" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57"/>
+      <c r="B35" s="1">
+        <v>3</v>
+      </c>
+      <c r="C35" s="71" t="s">
+        <v>133</v>
+      </c>
+      <c r="D35" s="66"/>
+      <c r="E35" s="66"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="66"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="66"/>
+      <c r="V35" s="66"/>
+      <c r="W35" s="66"/>
+      <c r="X35" s="66"/>
+      <c r="Y35" s="66"/>
+      <c r="Z35" s="66"/>
+      <c r="AA35" s="66"/>
+      <c r="AB35" s="66"/>
+      <c r="AC35" s="66"/>
+      <c r="AD35" s="66"/>
+      <c r="AE35" s="66"/>
+      <c r="AF35" s="66"/>
+      <c r="AG35" s="66"/>
+      <c r="AH35" s="66"/>
+      <c r="AI35" s="66"/>
+      <c r="AJ35" s="66"/>
+      <c r="AK35" s="66"/>
+      <c r="AL35" s="66"/>
+      <c r="AM35" s="66"/>
+      <c r="AN35" s="66"/>
+      <c r="AO35" s="66"/>
+      <c r="AP35" s="66"/>
+      <c r="AQ35" s="66"/>
+      <c r="AR35" s="66"/>
+      <c r="AS35" s="67"/>
+    </row>
+    <row r="36" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57"/>
+      <c r="B36" s="1">
+        <v>4</v>
+      </c>
+      <c r="C36" s="72" t="s">
+        <v>134</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="2"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="66"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="66"/>
+      <c r="V36" s="66"/>
+      <c r="W36" s="66"/>
+      <c r="X36" s="66"/>
+      <c r="Y36" s="66"/>
+      <c r="Z36" s="66"/>
+      <c r="AA36" s="66"/>
+      <c r="AB36" s="66"/>
+      <c r="AC36" s="66"/>
+      <c r="AD36" s="66"/>
+      <c r="AE36" s="66"/>
+      <c r="AF36" s="66"/>
+      <c r="AG36" s="66"/>
+      <c r="AH36" s="66"/>
+      <c r="AI36" s="66"/>
+      <c r="AJ36" s="66"/>
+      <c r="AK36" s="66"/>
+      <c r="AL36" s="66"/>
+      <c r="AM36" s="66"/>
+      <c r="AN36" s="66"/>
+      <c r="AO36" s="66"/>
+      <c r="AP36" s="66"/>
+      <c r="AQ36" s="66"/>
+      <c r="AR36" s="66"/>
+      <c r="AS36" s="67"/>
+    </row>
+    <row r="37" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57"/>
+      <c r="B37" s="73"/>
+      <c r="C37" s="72"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="2"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="66"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="66"/>
+      <c r="V37" s="66"/>
+      <c r="W37" s="66"/>
+      <c r="X37" s="66"/>
+      <c r="Y37" s="66"/>
+      <c r="Z37" s="66"/>
+      <c r="AA37" s="66"/>
+      <c r="AB37" s="66"/>
+      <c r="AC37" s="66"/>
+      <c r="AD37" s="66"/>
+      <c r="AE37" s="66"/>
+      <c r="AF37" s="66"/>
+      <c r="AG37" s="66"/>
+      <c r="AH37" s="66"/>
+      <c r="AI37" s="66"/>
+      <c r="AJ37" s="66"/>
+      <c r="AK37" s="66"/>
+      <c r="AL37" s="66"/>
+      <c r="AM37" s="66"/>
+      <c r="AN37" s="66"/>
+      <c r="AO37" s="66"/>
+      <c r="AP37" s="66"/>
+      <c r="AQ37" s="66"/>
+      <c r="AR37" s="66"/>
+      <c r="AS37" s="67"/>
+    </row>
+    <row r="38" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="72"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="66"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="2"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="2"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
+      <c r="S38" s="66"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="66"/>
+      <c r="V38" s="66"/>
+      <c r="W38" s="66"/>
+      <c r="X38" s="66"/>
+      <c r="Y38" s="66"/>
+      <c r="Z38" s="66"/>
+      <c r="AA38" s="66"/>
+      <c r="AB38" s="66"/>
+      <c r="AC38" s="66"/>
+      <c r="AD38" s="66"/>
+      <c r="AE38" s="66"/>
+      <c r="AF38" s="66"/>
+      <c r="AG38" s="66"/>
+      <c r="AH38" s="66"/>
+      <c r="AI38" s="66"/>
+      <c r="AJ38" s="66"/>
+      <c r="AK38" s="66"/>
+      <c r="AL38" s="66"/>
+      <c r="AM38" s="66"/>
+      <c r="AN38" s="66"/>
+      <c r="AO38" s="66"/>
+      <c r="AP38" s="66"/>
+      <c r="AQ38" s="66"/>
+      <c r="AR38" s="66"/>
+      <c r="AS38" s="67"/>
+    </row>
+    <row r="39" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57"/>
+      <c r="B39" s="74"/>
+      <c r="C39" s="72"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="66"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="66"/>
+      <c r="V39" s="66"/>
+      <c r="W39" s="66"/>
+      <c r="X39" s="66"/>
+      <c r="Y39" s="66"/>
+      <c r="Z39" s="66"/>
+      <c r="AA39" s="66"/>
+      <c r="AB39" s="66"/>
+      <c r="AC39" s="66"/>
+      <c r="AD39" s="66"/>
+      <c r="AE39" s="66"/>
+      <c r="AF39" s="66"/>
+      <c r="AG39" s="66"/>
+      <c r="AH39" s="66"/>
+      <c r="AI39" s="66"/>
+      <c r="AJ39" s="66"/>
+      <c r="AK39" s="66"/>
+      <c r="AL39" s="66"/>
+      <c r="AM39" s="66"/>
+      <c r="AN39" s="66"/>
+      <c r="AO39" s="66"/>
+      <c r="AP39" s="66"/>
+      <c r="AQ39" s="66"/>
+      <c r="AR39" s="66"/>
+      <c r="AS39" s="67"/>
+    </row>
+    <row r="40" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57"/>
+      <c r="B40" s="1"/>
+      <c r="C40" s="72"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="66"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="66"/>
+      <c r="V40" s="66"/>
+      <c r="W40" s="66"/>
+      <c r="X40" s="66"/>
+      <c r="Y40" s="66"/>
+      <c r="Z40" s="66"/>
+      <c r="AA40" s="66"/>
+      <c r="AB40" s="66"/>
+      <c r="AC40" s="66"/>
+      <c r="AD40" s="66"/>
+      <c r="AE40" s="66"/>
+      <c r="AF40" s="66"/>
+      <c r="AG40" s="66"/>
+      <c r="AH40" s="66"/>
+      <c r="AI40" s="66"/>
+      <c r="AJ40" s="66"/>
+      <c r="AK40" s="66"/>
+      <c r="AL40" s="66"/>
+      <c r="AM40" s="66"/>
+      <c r="AN40" s="66"/>
+      <c r="AO40" s="66"/>
+      <c r="AP40" s="66"/>
+      <c r="AQ40" s="66"/>
+      <c r="AR40" s="66"/>
+      <c r="AS40" s="67"/>
+    </row>
+    <row r="41" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57"/>
+      <c r="B41" s="65"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="66"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="66"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="66"/>
+      <c r="X41" s="66"/>
+      <c r="Y41" s="66"/>
+      <c r="Z41" s="66"/>
+      <c r="AA41" s="66"/>
+      <c r="AB41" s="66"/>
+      <c r="AC41" s="66"/>
+      <c r="AD41" s="66"/>
+      <c r="AE41" s="66"/>
+      <c r="AF41" s="66"/>
+      <c r="AG41" s="66"/>
+      <c r="AH41" s="66"/>
+      <c r="AI41" s="66"/>
+      <c r="AJ41" s="66"/>
+      <c r="AK41" s="66"/>
+      <c r="AL41" s="66"/>
+      <c r="AM41" s="66"/>
+      <c r="AN41" s="66"/>
+      <c r="AO41" s="66"/>
+      <c r="AP41" s="66"/>
+      <c r="AQ41" s="66"/>
+      <c r="AR41" s="66"/>
+      <c r="AS41" s="67"/>
+    </row>
+    <row r="42" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57"/>
+      <c r="B42" s="65"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="66"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="66"/>
+      <c r="V42" s="66"/>
+      <c r="W42" s="66"/>
+      <c r="X42" s="66"/>
+      <c r="Y42" s="66"/>
+      <c r="Z42" s="66"/>
+      <c r="AA42" s="66"/>
+      <c r="AB42" s="66"/>
+      <c r="AC42" s="66"/>
+      <c r="AD42" s="66"/>
+      <c r="AE42" s="66"/>
+      <c r="AF42" s="66"/>
+      <c r="AG42" s="66"/>
+      <c r="AH42" s="66"/>
+      <c r="AI42" s="66"/>
+      <c r="AJ42" s="66"/>
+      <c r="AK42" s="66"/>
+      <c r="AL42" s="66"/>
+      <c r="AM42" s="66"/>
+      <c r="AN42" s="66"/>
+      <c r="AO42" s="66"/>
+      <c r="AP42" s="66"/>
+      <c r="AQ42" s="66"/>
+      <c r="AR42" s="66"/>
+      <c r="AS42" s="67"/>
+    </row>
+    <row r="43" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57"/>
+      <c r="B43" s="65"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+      <c r="M43" s="2"/>
+      <c r="N43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="66"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="66"/>
+      <c r="V43" s="66"/>
+      <c r="W43" s="66"/>
+      <c r="X43" s="66"/>
+      <c r="Y43" s="66"/>
+      <c r="Z43" s="66"/>
+      <c r="AA43" s="66"/>
+      <c r="AB43" s="66"/>
+      <c r="AC43" s="66"/>
+      <c r="AD43" s="66"/>
+      <c r="AE43" s="66"/>
+      <c r="AF43" s="66"/>
+      <c r="AG43" s="66"/>
+      <c r="AH43" s="66"/>
+      <c r="AI43" s="66"/>
+      <c r="AJ43" s="66"/>
+      <c r="AK43" s="66"/>
+      <c r="AL43" s="66"/>
+      <c r="AM43" s="66"/>
+      <c r="AN43" s="66"/>
+      <c r="AO43" s="66"/>
+      <c r="AP43" s="66"/>
+      <c r="AQ43" s="66"/>
+      <c r="AR43" s="66"/>
+      <c r="AS43" s="67"/>
+    </row>
+    <row r="44" spans="1:45" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="57"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="76"/>
+      <c r="D44" s="76"/>
+      <c r="E44" s="76"/>
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="I44" s="76"/>
+      <c r="J44" s="76"/>
+      <c r="K44" s="76"/>
+      <c r="L44" s="76"/>
+      <c r="M44" s="76"/>
+      <c r="N44" s="76"/>
+      <c r="O44" s="76"/>
+      <c r="P44" s="76"/>
+      <c r="Q44" s="76"/>
+      <c r="R44" s="76"/>
+      <c r="S44" s="77"/>
+      <c r="T44" s="77"/>
+      <c r="U44" s="77"/>
+      <c r="V44" s="77"/>
+      <c r="W44" s="77"/>
+      <c r="X44" s="77"/>
+      <c r="Y44" s="77"/>
+      <c r="Z44" s="77"/>
+      <c r="AA44" s="77"/>
+      <c r="AB44" s="77"/>
+      <c r="AC44" s="77"/>
+      <c r="AD44" s="77"/>
+      <c r="AE44" s="77"/>
+      <c r="AF44" s="77"/>
+      <c r="AG44" s="77"/>
+      <c r="AH44" s="77"/>
+      <c r="AI44" s="77"/>
+      <c r="AJ44" s="77"/>
+      <c r="AK44" s="77"/>
+      <c r="AL44" s="77"/>
+      <c r="AM44" s="77"/>
+      <c r="AN44" s="77"/>
+      <c r="AO44" s="77"/>
+      <c r="AP44" s="77"/>
+      <c r="AQ44" s="77"/>
+      <c r="AR44" s="77"/>
+      <c r="AS44" s="78"/>
+    </row>
+    <row r="45" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="57"/>
+      <c r="B45"/>
+      <c r="C45"/>
+      <c r="D45"/>
+      <c r="E45"/>
+      <c r="F45"/>
+      <c r="G45"/>
+      <c r="H45"/>
+      <c r="I45"/>
+      <c r="J45"/>
+      <c r="K45"/>
+      <c r="L45"/>
+      <c r="M45"/>
+      <c r="N45"/>
+      <c r="O45"/>
+      <c r="P45"/>
+      <c r="Q45"/>
+      <c r="R45"/>
+      <c r="S45" s="66"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="C18:L18"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="D23:L23"/>
+    <mergeCell ref="C33:AS33"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="J3:M3"/>
+    <mergeCell ref="C5:E7"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="G7:L7"/>
+    <mergeCell ref="C16:L16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="3.85546875" style="7" customWidth="1"/>
+    <col min="2" max="2" width="5" style="7" customWidth="1"/>
+    <col min="3" max="3" width="27.5703125" style="7" customWidth="1"/>
+    <col min="4" max="4" width="28" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="67.7109375" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
+    </row>
+    <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="12"/>
+      <c r="D4" s="79" t="s">
+        <v>174</v>
+      </c>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
+    </row>
+    <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B6" s="15">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B7" s="15">
+        <v>2</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="18" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B8" s="15">
+        <v>3</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B9" s="15">
+        <v>4</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" s="15">
+        <v>5</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B11" s="15">
+        <v>6</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B12" s="15">
+        <v>7</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>150</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B13" s="15">
+        <v>8</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H13" s="17" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B14" s="15">
+        <v>9</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="F14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B15" s="15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B16" s="15">
+        <v>11</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B17" s="15">
+        <v>12</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B18" s="15">
+        <v>13</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="F18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="G18" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B19" s="15"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="17"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="15"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="17"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="15"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="17"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="15"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="15"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B25" s="15"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="15"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="21"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="25" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B31" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="1:8" s="26" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A32" s="7"/>
+      <c r="B32" s="27">
+        <v>0</v>
+      </c>
+      <c r="C32" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="80">
+        <v>3</v>
+      </c>
+      <c r="C35" s="80" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="80" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>4</v>
+      </c>
+      <c r="C36" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B37" s="7">
+        <v>4</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B38" s="7">
+        <v>5</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B39" s="7">
+        <v>6</v>
+      </c>
+      <c r="C39" s="7" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B40" s="7">
+        <v>7</v>
+      </c>
+      <c r="C40" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B42" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+    </row>
+    <row r="43" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>94</v>
+      </c>
+      <c r="D43" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B44" s="7">
+        <v>2</v>
+      </c>
+      <c r="C44" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>3</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D45" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B46" s="7">
+        <v>4</v>
+      </c>
+      <c r="C46" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:H2"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="D4" location="'Rider- Profile'!A1" display="Rider - Terms &amp; Conditions"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>

--- a/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Driver.xlsx
+++ b/trunk/WIP/Documents/Requirements/Mockup/Mobile/TaxiNet_ScreenDesign_Driver.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" firstSheet="3" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01.Start" sheetId="4" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="171">
   <si>
     <t>Mỗi lần gọi sẽ lưu lại lịch sử</t>
   </si>
@@ -348,21 +348,6 @@
   </si>
   <si>
     <t>Bỏ qua bước này để bắt đầu ứng dụng</t>
-  </si>
-  <si>
-    <t>Tìm Chuyến Xe Rẻ</t>
-  </si>
-  <si>
-    <t>Ẩn khi màn hình là Dịch Vụ không phải là taxi</t>
-  </si>
-  <si>
-    <t>Chia sẻ chuyến xe miễn phí</t>
-  </si>
-  <si>
-    <t>Đặt Taxi</t>
-  </si>
-  <si>
-    <t>Đặt taxi đối với hãng taxi</t>
   </si>
   <si>
     <t>?</t>
@@ -823,6 +808,9 @@
   </si>
   <si>
     <t>Profile</t>
+  </si>
+  <si>
+    <t>Điểm Nạp Tiền Tài Khoản</t>
   </si>
 </sst>
 </file>
@@ -1651,31 +1639,10 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
@@ -1708,6 +1675,35 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1726,44 +1722,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1774,8 +1740,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1789,6 +1753,30 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="53" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="50" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2883,268 +2871,268 @@
   <sheetData>
     <row r="2" spans="2:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46" t="s">
+      <c r="B3" s="39"/>
+      <c r="C3" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="49" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="90" t="s">
         <v>64</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="50"/>
+      <c r="D4" s="90"/>
+      <c r="E4" s="90"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="90"/>
+      <c r="H4" s="90"/>
+      <c r="I4" s="90"/>
+      <c r="J4" s="90"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="50"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="90"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="90"/>
+      <c r="G5" s="90"/>
+      <c r="H5" s="90"/>
+      <c r="I5" s="90"/>
+      <c r="J5" s="90"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="50"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="90"/>
+      <c r="D6" s="90"/>
+      <c r="E6" s="90"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="90"/>
+      <c r="H6" s="90"/>
+      <c r="I6" s="90"/>
+      <c r="J6" s="90"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="50"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="90"/>
+      <c r="D7" s="90"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="50"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="90"/>
+      <c r="D8" s="90"/>
+      <c r="E8" s="90"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="90"/>
+      <c r="H8" s="90"/>
+      <c r="I8" s="90"/>
+      <c r="J8" s="90"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="50"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="90"/>
+      <c r="H9" s="90"/>
+      <c r="I9" s="90"/>
+      <c r="J9" s="90"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="50"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="90"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
+      <c r="J10" s="90"/>
+      <c r="K10" s="43"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="48"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="51"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+      <c r="K11" s="44"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="48"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="52"/>
+      <c r="B12" s="42"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="90"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="90"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="90"/>
+      <c r="J12" s="90"/>
+      <c r="K12" s="45"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="49"/>
-      <c r="K13" s="51"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="90"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="90"/>
+      <c r="J13" s="90"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="49"/>
-      <c r="K14" s="52"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+      <c r="J14" s="90"/>
+      <c r="K14" s="45"/>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="49"/>
-      <c r="K15" s="52"/>
+      <c r="B15" s="42"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="90"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="90"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="90"/>
+      <c r="J15" s="90"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="49"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="49"/>
-      <c r="K16" s="52"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="90"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="90"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="90"/>
+      <c r="J16" s="90"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="49"/>
-      <c r="K17" s="52"/>
+      <c r="B17" s="42"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="90"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="90"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="90"/>
+      <c r="J17" s="90"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="49"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="49"/>
-      <c r="K18" s="52"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="90"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="90"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="90"/>
+      <c r="J18" s="90"/>
+      <c r="K18" s="45"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="49"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="49"/>
-      <c r="K19" s="50"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="90"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="90"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="90"/>
+      <c r="J19" s="90"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="53" t="s">
+      <c r="B20" s="42"/>
+      <c r="C20" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
-      <c r="J20" s="53" t="s">
+      <c r="J20" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="K20" s="50"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="50"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="53"/>
-      <c r="J22" s="53"/>
-      <c r="K22" s="50"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="43"/>
     </row>
     <row r="23" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="54"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="55"/>
-      <c r="J23" s="55"/>
-      <c r="K23" s="56"/>
-    </row>
-    <row r="29" spans="1:43" s="60" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
-      <c r="B29" s="58" t="s">
+      <c r="B23" s="47"/>
+      <c r="C23" s="48"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="48"/>
+      <c r="F23" s="48"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="48"/>
+      <c r="I23" s="48"/>
+      <c r="J23" s="48"/>
+      <c r="K23" s="49"/>
+    </row>
+    <row r="29" spans="1:43" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="50"/>
+      <c r="B29" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C29"/>
@@ -3161,62 +3149,62 @@
       <c r="N29"/>
       <c r="O29"/>
       <c r="P29"/>
-      <c r="Q29" s="59"/>
+      <c r="Q29" s="52"/>
       <c r="R29"/>
-      <c r="S29" s="59"/>
-    </row>
-    <row r="30" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="61" t="s">
+      <c r="S29" s="52"/>
+    </row>
+    <row r="30" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="63"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="64"/>
-    </row>
-    <row r="31" spans="1:43" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="65">
+      <c r="D30" s="55"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+      <c r="H30" s="55"/>
+      <c r="I30" s="55"/>
+      <c r="J30" s="55"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
+      <c r="M30" s="55"/>
+      <c r="N30" s="55"/>
+      <c r="O30" s="55"/>
+      <c r="P30" s="55"/>
+      <c r="Q30" s="56"/>
+      <c r="R30" s="55"/>
+      <c r="S30" s="56"/>
+      <c r="T30" s="55"/>
+      <c r="U30" s="55"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="55"/>
+      <c r="X30" s="55"/>
+      <c r="Y30" s="55"/>
+      <c r="Z30" s="55"/>
+      <c r="AA30" s="55"/>
+      <c r="AB30" s="55"/>
+      <c r="AC30" s="55"/>
+      <c r="AD30" s="55"/>
+      <c r="AE30" s="55"/>
+      <c r="AF30" s="55"/>
+      <c r="AG30" s="55"/>
+      <c r="AH30" s="55"/>
+      <c r="AI30" s="55"/>
+      <c r="AJ30" s="55"/>
+      <c r="AK30" s="55"/>
+      <c r="AL30" s="55"/>
+      <c r="AM30" s="55"/>
+      <c r="AN30" s="55"/>
+      <c r="AO30" s="55"/>
+      <c r="AP30" s="55"/>
+      <c r="AQ30" s="57"/>
+    </row>
+    <row r="31" spans="1:43" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="58">
         <v>1</v>
       </c>
       <c r="C31" s="2" t="s">
@@ -3235,88 +3223,88 @@
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="59"/>
+      <c r="Q31" s="52"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="67"/>
-    </row>
-    <row r="32" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="68">
+      <c r="S31" s="52"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="60"/>
+    </row>
+    <row r="32" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="61">
         <v>2</v>
       </c>
-      <c r="C32" s="69" t="s">
+      <c r="C32" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="D32" s="69"/>
-      <c r="E32" s="69"/>
-      <c r="F32" s="69"/>
-      <c r="G32" s="69"/>
-      <c r="H32" s="69"/>
-      <c r="I32" s="69"/>
-      <c r="J32" s="69"/>
-      <c r="K32" s="69"/>
-      <c r="L32" s="69"/>
-      <c r="M32" s="70"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="63"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="66"/>
+      <c r="Q32" s="59"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="67"/>
-    </row>
-    <row r="33" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="60"/>
+    </row>
+    <row r="33" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="66"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="59"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
@@ -3329,38 +3317,38 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="66"/>
+      <c r="Q33" s="59"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="67"/>
-    </row>
-    <row r="34" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="60"/>
+    </row>
+    <row r="34" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="72"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -3374,38 +3362,38 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="66"/>
+      <c r="Q34" s="59"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="66"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="67"/>
-    </row>
-    <row r="35" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="72"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="60"/>
+    </row>
+    <row r="35" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
+      <c r="B35" s="66"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
@@ -3419,44 +3407,44 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="66"/>
+      <c r="Q35" s="59"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="67"/>
-    </row>
-    <row r="36" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="60"/>
+    </row>
+    <row r="36" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
       <c r="B36" s="1"/>
-      <c r="C36" s="72"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="66"/>
-      <c r="G36" s="66"/>
-      <c r="H36" s="66"/>
-      <c r="I36" s="66"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="59"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
       <c r="L36" s="2"/>
@@ -3464,38 +3452,38 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="66"/>
+      <c r="Q36" s="59"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="67"/>
-    </row>
-    <row r="37" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="72"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="60"/>
+    </row>
+    <row r="37" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="67"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -3509,38 +3497,38 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="66"/>
+      <c r="Q37" s="59"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="67"/>
-    </row>
-    <row r="38" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="60"/>
+    </row>
+    <row r="38" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -3554,37 +3542,37 @@
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="66"/>
+      <c r="Q38" s="59"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="66"/>
-      <c r="AN38" s="66"/>
-      <c r="AO38" s="66"/>
-      <c r="AP38" s="66"/>
-      <c r="AQ38" s="67"/>
-    </row>
-    <row r="39" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="65"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="60"/>
+    </row>
+    <row r="39" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -3592,44 +3580,44 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
-      <c r="J39" s="66"/>
+      <c r="J39" s="59"/>
       <c r="K39" s="2"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="66"/>
+      <c r="Q39" s="59"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="66"/>
-      <c r="AO39" s="66"/>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="67"/>
-    </row>
-    <row r="40" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="65"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="60"/>
+    </row>
+    <row r="40" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -3644,37 +3632,37 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="66"/>
+      <c r="Q40" s="59"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="66"/>
-      <c r="AN40" s="66"/>
-      <c r="AO40" s="66"/>
-      <c r="AP40" s="66"/>
-      <c r="AQ40" s="67"/>
-    </row>
-    <row r="41" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="65"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="60"/>
+    </row>
+    <row r="41" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -3689,81 +3677,81 @@
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
-      <c r="Q41" s="66"/>
+      <c r="Q41" s="59"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="66"/>
-      <c r="T41" s="66"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="66"/>
-      <c r="AN41" s="66"/>
-      <c r="AO41" s="66"/>
-      <c r="AP41" s="66"/>
-      <c r="AQ41" s="67"/>
-    </row>
-    <row r="42" spans="1:43" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="57"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="76"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="76"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-      <c r="K42" s="76"/>
-      <c r="L42" s="76"/>
-      <c r="M42" s="76"/>
-      <c r="N42" s="76"/>
-      <c r="O42" s="76"/>
-      <c r="P42" s="76"/>
-      <c r="Q42" s="77"/>
-      <c r="R42" s="77"/>
-      <c r="S42" s="77"/>
-      <c r="T42" s="77"/>
-      <c r="U42" s="77"/>
-      <c r="V42" s="77"/>
-      <c r="W42" s="77"/>
-      <c r="X42" s="77"/>
-      <c r="Y42" s="77"/>
-      <c r="Z42" s="77"/>
-      <c r="AA42" s="77"/>
-      <c r="AB42" s="77"/>
-      <c r="AC42" s="77"/>
-      <c r="AD42" s="77"/>
-      <c r="AE42" s="77"/>
-      <c r="AF42" s="77"/>
-      <c r="AG42" s="77"/>
-      <c r="AH42" s="77"/>
-      <c r="AI42" s="77"/>
-      <c r="AJ42" s="77"/>
-      <c r="AK42" s="77"/>
-      <c r="AL42" s="77"/>
-      <c r="AM42" s="77"/>
-      <c r="AN42" s="77"/>
-      <c r="AO42" s="77"/>
-      <c r="AP42" s="77"/>
-      <c r="AQ42" s="78"/>
-    </row>
-    <row r="43" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
+      <c r="S41" s="59"/>
+      <c r="T41" s="59"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="60"/>
+    </row>
+    <row r="42" spans="1:43" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="50"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="69"/>
+      <c r="D42" s="69"/>
+      <c r="E42" s="69"/>
+      <c r="F42" s="69"/>
+      <c r="G42" s="69"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="69"/>
+      <c r="J42" s="69"/>
+      <c r="K42" s="69"/>
+      <c r="L42" s="69"/>
+      <c r="M42" s="69"/>
+      <c r="N42" s="69"/>
+      <c r="O42" s="69"/>
+      <c r="P42" s="69"/>
+      <c r="Q42" s="70"/>
+      <c r="R42" s="70"/>
+      <c r="S42" s="70"/>
+      <c r="T42" s="70"/>
+      <c r="U42" s="70"/>
+      <c r="V42" s="70"/>
+      <c r="W42" s="70"/>
+      <c r="X42" s="70"/>
+      <c r="Y42" s="70"/>
+      <c r="Z42" s="70"/>
+      <c r="AA42" s="70"/>
+      <c r="AB42" s="70"/>
+      <c r="AC42" s="70"/>
+      <c r="AD42" s="70"/>
+      <c r="AE42" s="70"/>
+      <c r="AF42" s="70"/>
+      <c r="AG42" s="70"/>
+      <c r="AH42" s="70"/>
+      <c r="AI42" s="70"/>
+      <c r="AJ42" s="70"/>
+      <c r="AK42" s="70"/>
+      <c r="AL42" s="70"/>
+      <c r="AM42" s="70"/>
+      <c r="AN42" s="70"/>
+      <c r="AO42" s="70"/>
+      <c r="AP42" s="70"/>
+      <c r="AQ42" s="71"/>
+    </row>
+    <row r="43" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
       <c r="B43"/>
       <c r="C43"/>
       <c r="D43"/>
@@ -3779,9 +3767,9 @@
       <c r="N43"/>
       <c r="O43"/>
       <c r="P43"/>
-      <c r="Q43" s="66"/>
+      <c r="Q43" s="59"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="66"/>
+      <c r="S43" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3797,8 +3785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3816,15 +3804,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -3832,7 +3820,7 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -3844,8 +3832,8 @@
         <v>9</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="79" t="s">
-        <v>172</v>
+      <c r="D4" s="72" t="s">
+        <v>167</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -4158,9 +4146,7 @@
       <c r="B31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="C31" s="23"/>
       <c r="D31" s="23" t="s">
         <v>27</v>
       </c>
@@ -4174,97 +4160,65 @@
       <c r="B32" s="27">
         <v>0</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>46</v>
-      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="80">
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="2:8" s="74" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="73">
         <v>3</v>
       </c>
-      <c r="C35" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="81" t="s">
-        <v>93</v>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
+      <c r="C36"/>
       <c r="D36"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="7">
         <v>4</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
         <v>5</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
         <v>6</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
         <v>7</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="C42" s="32"/>
       <c r="D42" s="32" t="s">
         <v>27</v>
       </c>
@@ -4277,45 +4231,26 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
+      <c r="C43"/>
+      <c r="D43"/>
     </row>
     <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>2</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>3</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
-      </c>
+      <c r="D45"/>
     </row>
     <row r="46" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>4</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
+      <c r="D46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4380,107 +4315,107 @@
   <sheetData>
     <row r="2" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
-      <c r="J3" s="46"/>
-      <c r="K3" s="47"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="41"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="82" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="82"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="83"/>
-      <c r="H4" s="83"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="50"/>
+      <c r="D4" s="94"/>
+      <c r="E4" s="95"/>
+      <c r="F4" s="95"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="95"/>
+      <c r="I4" s="95"/>
+      <c r="J4" s="95"/>
+      <c r="K4" s="43"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="50"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="95"/>
+      <c r="D5" s="95"/>
+      <c r="E5" s="95"/>
+      <c r="F5" s="95"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="95"/>
+      <c r="I5" s="95"/>
+      <c r="J5" s="95"/>
+      <c r="K5" s="43"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="83"/>
-      <c r="D6" s="83"/>
-      <c r="E6" s="83"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="83"/>
-      <c r="H6" s="83"/>
-      <c r="I6" s="83"/>
-      <c r="J6" s="83"/>
-      <c r="K6" s="50"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="95"/>
+      <c r="D6" s="95"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="95"/>
+      <c r="H6" s="95"/>
+      <c r="I6" s="95"/>
+      <c r="J6" s="95"/>
+      <c r="K6" s="43"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="50"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="43"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="53"/>
-      <c r="D8" s="53"/>
-      <c r="E8" s="53"/>
-      <c r="F8" s="53"/>
-      <c r="G8" s="53"/>
-      <c r="H8" s="53"/>
-      <c r="I8" s="53"/>
-      <c r="J8" s="53"/>
-      <c r="K8" s="50"/>
+      <c r="B8" s="42"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="K8" s="43"/>
     </row>
     <row r="9" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="48"/>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53"/>
-      <c r="H9" s="53"/>
-      <c r="I9" s="53"/>
-      <c r="J9" s="53"/>
-      <c r="K9" s="50"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="43"/>
     </row>
     <row r="10" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="48"/>
+      <c r="B10" s="42"/>
       <c r="C10" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="84"/>
-      <c r="G10" s="85"/>
-      <c r="H10" s="85"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="86"/>
-      <c r="K10" s="51"/>
+      <c r="F10" s="96"/>
+      <c r="G10" s="97"/>
+      <c r="H10" s="97"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="98"/>
+      <c r="K10" s="44"/>
     </row>
     <row r="11" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="48"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -4489,24 +4424,24 @@
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
-      <c r="K11" s="52"/>
+      <c r="K11" s="45"/>
     </row>
     <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="48"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="88"/>
-      <c r="H12" s="88"/>
-      <c r="I12" s="88"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="51"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+      <c r="K12" s="44"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
@@ -4515,13 +4450,13 @@
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
-      <c r="K13" s="52"/>
+      <c r="K13" s="45"/>
       <c r="N13" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
+      <c r="B14" s="42"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -4530,13 +4465,13 @@
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
-      <c r="K14" s="52"/>
+      <c r="K14" s="45"/>
       <c r="N14" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -4545,26 +4480,26 @@
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
-      <c r="K15" s="52"/>
+      <c r="K15" s="45"/>
     </row>
     <row r="16" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="90" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="90"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="75" t="s">
+        <v>95</v>
+      </c>
+      <c r="D16" s="75"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="91" t="s">
-        <v>101</v>
-      </c>
-      <c r="G16" s="91"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="91"/>
+      <c r="F16" s="76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" s="76"/>
+      <c r="H16" s="76"/>
+      <c r="I16" s="76"/>
       <c r="J16" s="2"/>
-      <c r="K16" s="52"/>
+      <c r="K16" s="45"/>
     </row>
     <row r="17" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -4573,71 +4508,71 @@
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
-      <c r="K17" s="52"/>
+      <c r="K17" s="45"/>
     </row>
     <row r="18" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="53"/>
-      <c r="K18" s="50"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="75"/>
+      <c r="H18" s="75"/>
+      <c r="I18" s="75"/>
+      <c r="J18" s="46"/>
+      <c r="K18" s="43"/>
     </row>
     <row r="19" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="B19" s="42"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
-      <c r="J19" s="53"/>
-      <c r="K19" s="50"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="43"/>
     </row>
     <row r="20" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="53"/>
-      <c r="G20" s="53"/>
-      <c r="H20" s="53"/>
-      <c r="I20" s="53"/>
-      <c r="J20" s="53"/>
-      <c r="K20" s="50"/>
+      <c r="B20" s="42"/>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="46"/>
+      <c r="J20" s="46"/>
+      <c r="K20" s="43"/>
     </row>
     <row r="21" spans="1:43" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="53"/>
-      <c r="F21" s="53"/>
-      <c r="G21" s="53"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="53"/>
-      <c r="J21" s="53"/>
-      <c r="K21" s="50"/>
+      <c r="B21" s="42"/>
+      <c r="C21" s="46"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="46"/>
+      <c r="F21" s="46"/>
+      <c r="G21" s="46"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="46"/>
+      <c r="J21" s="46"/>
+      <c r="K21" s="43"/>
     </row>
     <row r="22" spans="1:43" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="54"/>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="56"/>
-    </row>
-    <row r="28" spans="1:43" s="60" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="58" t="s">
+      <c r="B22" s="47"/>
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="48"/>
+      <c r="G22" s="48"/>
+      <c r="H22" s="48"/>
+      <c r="I22" s="48"/>
+      <c r="J22" s="48"/>
+      <c r="K22" s="49"/>
+    </row>
+    <row r="28" spans="1:43" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="50"/>
+      <c r="B28" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C28"/>
@@ -4654,66 +4589,66 @@
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
-      <c r="Q28" s="59"/>
+      <c r="Q28" s="52"/>
       <c r="R28"/>
-      <c r="S28" s="59"/>
-    </row>
-    <row r="29" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="61" t="s">
+      <c r="S28" s="52"/>
+    </row>
+    <row r="29" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="50"/>
+      <c r="B29" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="62" t="s">
+      <c r="C29" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="63"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="63"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="64"/>
-    </row>
-    <row r="30" spans="1:43" s="60" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="65">
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+      <c r="H29" s="55"/>
+      <c r="I29" s="55"/>
+      <c r="J29" s="55"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
+      <c r="M29" s="55"/>
+      <c r="N29" s="55"/>
+      <c r="O29" s="55"/>
+      <c r="P29" s="55"/>
+      <c r="Q29" s="56"/>
+      <c r="R29" s="55"/>
+      <c r="S29" s="56"/>
+      <c r="T29" s="55"/>
+      <c r="U29" s="55"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="55"/>
+      <c r="X29" s="55"/>
+      <c r="Y29" s="55"/>
+      <c r="Z29" s="55"/>
+      <c r="AA29" s="55"/>
+      <c r="AB29" s="55"/>
+      <c r="AC29" s="55"/>
+      <c r="AD29" s="55"/>
+      <c r="AE29" s="55"/>
+      <c r="AF29" s="55"/>
+      <c r="AG29" s="55"/>
+      <c r="AH29" s="55"/>
+      <c r="AI29" s="55"/>
+      <c r="AJ29" s="55"/>
+      <c r="AK29" s="55"/>
+      <c r="AL29" s="55"/>
+      <c r="AM29" s="55"/>
+      <c r="AN29" s="55"/>
+      <c r="AO29" s="55"/>
+      <c r="AP29" s="55"/>
+      <c r="AQ29" s="57"/>
+    </row>
+    <row r="30" spans="1:43" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="50"/>
+      <c r="B30" s="58">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -4728,88 +4663,88 @@
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" s="2"/>
-      <c r="Q30" s="59"/>
+      <c r="Q30" s="52"/>
       <c r="R30" s="2"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="66"/>
-      <c r="U30" s="66"/>
-      <c r="V30" s="66"/>
-      <c r="W30" s="66"/>
-      <c r="X30" s="66"/>
-      <c r="Y30" s="66"/>
-      <c r="Z30" s="66"/>
-      <c r="AA30" s="66"/>
-      <c r="AB30" s="66"/>
-      <c r="AC30" s="66"/>
-      <c r="AD30" s="66"/>
-      <c r="AE30" s="66"/>
-      <c r="AF30" s="66"/>
-      <c r="AG30" s="66"/>
-      <c r="AH30" s="66"/>
-      <c r="AI30" s="66"/>
-      <c r="AJ30" s="66"/>
-      <c r="AK30" s="66"/>
-      <c r="AL30" s="66"/>
-      <c r="AM30" s="66"/>
-      <c r="AN30" s="66"/>
-      <c r="AO30" s="66"/>
-      <c r="AP30" s="66"/>
-      <c r="AQ30" s="67"/>
-    </row>
-    <row r="31" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57"/>
-      <c r="B31" s="68">
+      <c r="S30" s="52"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="60"/>
+    </row>
+    <row r="31" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="50"/>
+      <c r="B31" s="61">
         <v>2</v>
       </c>
-      <c r="C31" s="69" t="s">
-        <v>103</v>
-      </c>
-      <c r="D31" s="69"/>
-      <c r="E31" s="69"/>
-      <c r="F31" s="69"/>
-      <c r="G31" s="69"/>
-      <c r="H31" s="69"/>
-      <c r="I31" s="69"/>
-      <c r="J31" s="69"/>
-      <c r="K31" s="69"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="70"/>
+      <c r="C31" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="63"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" s="2"/>
-      <c r="Q31" s="66"/>
+      <c r="Q31" s="59"/>
       <c r="R31" s="2"/>
-      <c r="S31" s="66"/>
-      <c r="T31" s="66"/>
-      <c r="U31" s="66"/>
-      <c r="V31" s="66"/>
-      <c r="W31" s="66"/>
-      <c r="X31" s="66"/>
-      <c r="Y31" s="66"/>
-      <c r="Z31" s="66"/>
-      <c r="AA31" s="66"/>
-      <c r="AB31" s="66"/>
-      <c r="AC31" s="66"/>
-      <c r="AD31" s="66"/>
-      <c r="AE31" s="66"/>
-      <c r="AF31" s="66"/>
-      <c r="AG31" s="66"/>
-      <c r="AH31" s="66"/>
-      <c r="AI31" s="66"/>
-      <c r="AJ31" s="66"/>
-      <c r="AK31" s="66"/>
-      <c r="AL31" s="66"/>
-      <c r="AM31" s="66"/>
-      <c r="AN31" s="66"/>
-      <c r="AO31" s="66"/>
-      <c r="AP31" s="66"/>
-      <c r="AQ31" s="67"/>
-    </row>
-    <row r="32" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="60"/>
+    </row>
+    <row r="32" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="66"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="59"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
@@ -4822,38 +4757,38 @@
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
-      <c r="Q32" s="66"/>
+      <c r="Q32" s="59"/>
       <c r="R32" s="2"/>
-      <c r="S32" s="66"/>
-      <c r="T32" s="66"/>
-      <c r="U32" s="66"/>
-      <c r="V32" s="66"/>
-      <c r="W32" s="66"/>
-      <c r="X32" s="66"/>
-      <c r="Y32" s="66"/>
-      <c r="Z32" s="66"/>
-      <c r="AA32" s="66"/>
-      <c r="AB32" s="66"/>
-      <c r="AC32" s="66"/>
-      <c r="AD32" s="66"/>
-      <c r="AE32" s="66"/>
-      <c r="AF32" s="66"/>
-      <c r="AG32" s="66"/>
-      <c r="AH32" s="66"/>
-      <c r="AI32" s="66"/>
-      <c r="AJ32" s="66"/>
-      <c r="AK32" s="66"/>
-      <c r="AL32" s="66"/>
-      <c r="AM32" s="66"/>
-      <c r="AN32" s="66"/>
-      <c r="AO32" s="66"/>
-      <c r="AP32" s="66"/>
-      <c r="AQ32" s="67"/>
-    </row>
-    <row r="33" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="60"/>
+    </row>
+    <row r="33" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="72"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -4867,38 +4802,38 @@
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="66"/>
+      <c r="Q33" s="59"/>
       <c r="R33" s="2"/>
-      <c r="S33" s="66"/>
-      <c r="T33" s="66"/>
-      <c r="U33" s="66"/>
-      <c r="V33" s="66"/>
-      <c r="W33" s="66"/>
-      <c r="X33" s="66"/>
-      <c r="Y33" s="66"/>
-      <c r="Z33" s="66"/>
-      <c r="AA33" s="66"/>
-      <c r="AB33" s="66"/>
-      <c r="AC33" s="66"/>
-      <c r="AD33" s="66"/>
-      <c r="AE33" s="66"/>
-      <c r="AF33" s="66"/>
-      <c r="AG33" s="66"/>
-      <c r="AH33" s="66"/>
-      <c r="AI33" s="66"/>
-      <c r="AJ33" s="66"/>
-      <c r="AK33" s="66"/>
-      <c r="AL33" s="66"/>
-      <c r="AM33" s="66"/>
-      <c r="AN33" s="66"/>
-      <c r="AO33" s="66"/>
-      <c r="AP33" s="66"/>
-      <c r="AQ33" s="67"/>
-    </row>
-    <row r="34" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="73"/>
-      <c r="C34" s="72"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="60"/>
+    </row>
+    <row r="34" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="65"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -4912,44 +4847,44 @@
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
-      <c r="Q34" s="66"/>
+      <c r="Q34" s="59"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="66"/>
-      <c r="T34" s="66"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="66"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="67"/>
-    </row>
-    <row r="35" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="60"/>
+    </row>
+    <row r="35" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
       <c r="B35" s="1"/>
-      <c r="C35" s="72"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="66"/>
-      <c r="G35" s="66"/>
-      <c r="H35" s="66"/>
-      <c r="I35" s="66"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
       <c r="L35" s="2"/>
@@ -4957,38 +4892,38 @@
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" s="2"/>
-      <c r="Q35" s="66"/>
+      <c r="Q35" s="59"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="66"/>
-      <c r="T35" s="66"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="67"/>
-    </row>
-    <row r="36" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="72"/>
+      <c r="S35" s="59"/>
+      <c r="T35" s="59"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="60"/>
+    </row>
+    <row r="36" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
+      <c r="B36" s="67"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
@@ -5002,38 +4937,38 @@
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
       <c r="P36" s="2"/>
-      <c r="Q36" s="66"/>
+      <c r="Q36" s="59"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="66"/>
-      <c r="T36" s="66"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="67"/>
-    </row>
-    <row r="37" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
+      <c r="S36" s="59"/>
+      <c r="T36" s="59"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="60"/>
+    </row>
+    <row r="37" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
       <c r="B37" s="1"/>
-      <c r="C37" s="72"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -5047,37 +4982,37 @@
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
-      <c r="Q37" s="66"/>
+      <c r="Q37" s="59"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="66"/>
-      <c r="T37" s="66"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="67"/>
-    </row>
-    <row r="38" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="65"/>
+      <c r="S37" s="59"/>
+      <c r="T37" s="59"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="60"/>
+    </row>
+    <row r="38" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
+      <c r="B38" s="58"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
@@ -5085,44 +5020,44 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
-      <c r="J38" s="66"/>
+      <c r="J38" s="59"/>
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
       <c r="P38" s="2"/>
-      <c r="Q38" s="66"/>
+      <c r="Q38" s="59"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="66"/>
-      <c r="T38" s="66"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="66"/>
-      <c r="AN38" s="66"/>
-      <c r="AO38" s="66"/>
-      <c r="AP38" s="66"/>
-      <c r="AQ38" s="67"/>
-    </row>
-    <row r="39" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="65"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="60"/>
+    </row>
+    <row r="39" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="58"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
@@ -5137,37 +5072,37 @@
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
-      <c r="Q39" s="66"/>
+      <c r="Q39" s="59"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="66"/>
-      <c r="T39" s="66"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="66"/>
-      <c r="AO39" s="66"/>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="67"/>
-    </row>
-    <row r="40" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="65"/>
+      <c r="S39" s="59"/>
+      <c r="T39" s="59"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="60"/>
+    </row>
+    <row r="40" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
+      <c r="B40" s="58"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -5182,81 +5117,81 @@
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" s="2"/>
-      <c r="Q40" s="66"/>
+      <c r="Q40" s="59"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="66"/>
-      <c r="T40" s="66"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="66"/>
-      <c r="AN40" s="66"/>
-      <c r="AO40" s="66"/>
-      <c r="AP40" s="66"/>
-      <c r="AQ40" s="67"/>
-    </row>
-    <row r="41" spans="1:43" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="57"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="76"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-      <c r="K41" s="76"/>
-      <c r="L41" s="76"/>
-      <c r="M41" s="76"/>
-      <c r="N41" s="76"/>
-      <c r="O41" s="76"/>
-      <c r="P41" s="76"/>
-      <c r="Q41" s="77"/>
-      <c r="R41" s="77"/>
-      <c r="S41" s="77"/>
-      <c r="T41" s="77"/>
-      <c r="U41" s="77"/>
-      <c r="V41" s="77"/>
-      <c r="W41" s="77"/>
-      <c r="X41" s="77"/>
-      <c r="Y41" s="77"/>
-      <c r="Z41" s="77"/>
-      <c r="AA41" s="77"/>
-      <c r="AB41" s="77"/>
-      <c r="AC41" s="77"/>
-      <c r="AD41" s="77"/>
-      <c r="AE41" s="77"/>
-      <c r="AF41" s="77"/>
-      <c r="AG41" s="77"/>
-      <c r="AH41" s="77"/>
-      <c r="AI41" s="77"/>
-      <c r="AJ41" s="77"/>
-      <c r="AK41" s="77"/>
-      <c r="AL41" s="77"/>
-      <c r="AM41" s="77"/>
-      <c r="AN41" s="77"/>
-      <c r="AO41" s="77"/>
-      <c r="AP41" s="77"/>
-      <c r="AQ41" s="78"/>
-    </row>
-    <row r="42" spans="1:43" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
+      <c r="S40" s="59"/>
+      <c r="T40" s="59"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="60"/>
+    </row>
+    <row r="41" spans="1:43" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="50"/>
+      <c r="B41" s="68"/>
+      <c r="C41" s="69"/>
+      <c r="D41" s="69"/>
+      <c r="E41" s="69"/>
+      <c r="F41" s="69"/>
+      <c r="G41" s="69"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="69"/>
+      <c r="J41" s="69"/>
+      <c r="K41" s="69"/>
+      <c r="L41" s="69"/>
+      <c r="M41" s="69"/>
+      <c r="N41" s="69"/>
+      <c r="O41" s="69"/>
+      <c r="P41" s="69"/>
+      <c r="Q41" s="70"/>
+      <c r="R41" s="70"/>
+      <c r="S41" s="70"/>
+      <c r="T41" s="70"/>
+      <c r="U41" s="70"/>
+      <c r="V41" s="70"/>
+      <c r="W41" s="70"/>
+      <c r="X41" s="70"/>
+      <c r="Y41" s="70"/>
+      <c r="Z41" s="70"/>
+      <c r="AA41" s="70"/>
+      <c r="AB41" s="70"/>
+      <c r="AC41" s="70"/>
+      <c r="AD41" s="70"/>
+      <c r="AE41" s="70"/>
+      <c r="AF41" s="70"/>
+      <c r="AG41" s="70"/>
+      <c r="AH41" s="70"/>
+      <c r="AI41" s="70"/>
+      <c r="AJ41" s="70"/>
+      <c r="AK41" s="70"/>
+      <c r="AL41" s="70"/>
+      <c r="AM41" s="70"/>
+      <c r="AN41" s="70"/>
+      <c r="AO41" s="70"/>
+      <c r="AP41" s="70"/>
+      <c r="AQ41" s="71"/>
+    </row>
+    <row r="42" spans="1:43" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
       <c r="B42"/>
       <c r="C42"/>
       <c r="D42"/>
@@ -5272,9 +5207,9 @@
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42" s="66"/>
+      <c r="Q42" s="59"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="66"/>
+      <c r="S42" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5295,8 +5230,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -5314,15 +5249,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -5330,7 +5265,7 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -5342,8 +5277,8 @@
         <v>9</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="79" t="s">
-        <v>110</v>
+      <c r="D4" s="72" t="s">
+        <v>105</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -5401,10 +5336,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>17</v>
@@ -5416,7 +5351,7 @@
         <v>50</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -5424,10 +5359,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>17</v>
@@ -5439,7 +5374,7 @@
         <v>30</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -5447,10 +5382,10 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>80</v>
@@ -5468,10 +5403,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>80</v>
@@ -5481,7 +5416,7 @@
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="17" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -5489,10 +5424,10 @@
         <v>6</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E11" s="16" t="s">
         <v>80</v>
@@ -5502,7 +5437,7 @@
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="17" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -5664,9 +5599,7 @@
       <c r="B31" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="23" t="s">
-        <v>4</v>
-      </c>
+      <c r="C31" s="23"/>
       <c r="D31" s="23" t="s">
         <v>27</v>
       </c>
@@ -5680,97 +5613,65 @@
       <c r="B32" s="27">
         <v>0</v>
       </c>
-      <c r="C32" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="28" t="s">
-        <v>46</v>
-      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B33">
         <v>1</v>
       </c>
-      <c r="C33" t="s">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s">
-        <v>89</v>
-      </c>
+      <c r="C33"/>
+      <c r="D33"/>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B34">
         <v>2</v>
       </c>
-      <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="80">
+      <c r="C34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="2:8" s="74" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="73">
         <v>3</v>
       </c>
-      <c r="C35" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="81" t="s">
-        <v>93</v>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B36">
         <v>4</v>
       </c>
-      <c r="C36" t="s">
-        <v>29</v>
-      </c>
+      <c r="C36"/>
       <c r="D36"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B37" s="7">
         <v>4</v>
       </c>
-      <c r="C37" s="7" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B38" s="7">
         <v>5</v>
       </c>
-      <c r="C38" s="7" t="s">
-        <v>59</v>
-      </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B39" s="7">
         <v>6</v>
       </c>
-      <c r="C39" s="7" t="s">
-        <v>31</v>
-      </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
         <v>7</v>
       </c>
-      <c r="C40" s="7" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B42" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="32" t="s">
-        <v>39</v>
-      </c>
+      <c r="C42" s="32"/>
       <c r="D42" s="32" t="s">
         <v>27</v>
       </c>
@@ -5783,45 +5684,26 @@
       <c r="B43">
         <v>1</v>
       </c>
-      <c r="C43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D43" t="s">
-        <v>45</v>
-      </c>
+      <c r="C43"/>
+      <c r="D43"/>
     </row>
     <row r="44" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="7">
         <v>2</v>
       </c>
-      <c r="C44" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D44" t="s">
-        <v>45</v>
-      </c>
+      <c r="D44"/>
     </row>
     <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="7">
         <v>3</v>
       </c>
-      <c r="C45" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="D45" t="s">
-        <v>45</v>
-      </c>
+      <c r="D45"/>
     </row>
     <row r="46" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="7">
         <v>4</v>
       </c>
-      <c r="C46" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D46" t="s">
-        <v>45</v>
-      </c>
+      <c r="D46"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -5854,10 +5736,10 @@
       <c r="C4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="39"/>
+      <c r="E4" s="102"/>
       <c r="F4" s="37" t="s">
         <v>21</v>
       </c>
@@ -5959,7 +5841,7 @@
       <c r="F19" s="3"/>
     </row>
     <row r="20" spans="3:6" x14ac:dyDescent="0.25">
-      <c r="C20" s="40" t="s">
+      <c r="C20" s="103" t="s">
         <v>48</v>
       </c>
       <c r="D20" s="33" t="s">
@@ -5969,7 +5851,7 @@
       <c r="F20" s="34"/>
     </row>
     <row r="21" spans="3:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="41"/>
+      <c r="C21" s="104"/>
       <c r="D21" s="35" t="s">
         <v>49</v>
       </c>
@@ -6021,10 +5903,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H44"/>
+  <dimension ref="A1:H45"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6042,15 +5924,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -6510,6 +6392,17 @@
         <v>62</v>
       </c>
       <c r="D44" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B45" s="7">
+        <v>4</v>
+      </c>
+      <c r="C45" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="D45" t="s">
         <v>45</v>
       </c>
     </row>
@@ -6573,105 +6466,105 @@
   <sheetData>
     <row r="2" spans="2:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="39" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="113" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="113"/>
+      <c r="G3" s="113"/>
+      <c r="H3" s="113"/>
+      <c r="I3" s="113"/>
+      <c r="J3" s="113" t="s">
+        <v>112</v>
+      </c>
+      <c r="K3" s="113"/>
+      <c r="L3" s="113"/>
+      <c r="M3" s="114"/>
+    </row>
+    <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="42"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="43"/>
+    </row>
+    <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="42"/>
+      <c r="C5" s="115" t="s">
+        <v>113</v>
+      </c>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="77"/>
+      <c r="G5" s="116" t="s">
+        <v>114</v>
+      </c>
+      <c r="H5" s="116"/>
+      <c r="I5" s="116"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="43"/>
+    </row>
+    <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="42"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
+      <c r="M6" s="43"/>
+    </row>
+    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="42"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="117" t="s">
         <v>115</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="92" t="s">
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
+      <c r="J7" s="117"/>
+      <c r="K7" s="117"/>
+      <c r="L7" s="117"/>
+      <c r="M7" s="43"/>
+    </row>
+    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="42"/>
+      <c r="C8" s="2" t="s">
         <v>116</v>
-      </c>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="K3" s="92"/>
-      <c r="L3" s="92"/>
-      <c r="M3" s="93"/>
-    </row>
-    <row r="4" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="48"/>
-      <c r="C4" s="94"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="94"/>
-      <c r="F4" s="94"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="94"/>
-      <c r="I4" s="94"/>
-      <c r="J4" s="94"/>
-      <c r="K4" s="94"/>
-      <c r="L4" s="94"/>
-      <c r="M4" s="50"/>
-    </row>
-    <row r="5" spans="2:13" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="48"/>
-      <c r="C5" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="95"/>
-      <c r="E5" s="95"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="96" t="s">
-        <v>119</v>
-      </c>
-      <c r="H5" s="96"/>
-      <c r="I5" s="96"/>
-      <c r="J5" s="96"/>
-      <c r="K5" s="96"/>
-      <c r="L5" s="96"/>
-      <c r="M5" s="50"/>
-    </row>
-    <row r="6" spans="2:13" ht="1.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="48"/>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94"/>
-      <c r="I6" s="94"/>
-      <c r="J6" s="94"/>
-      <c r="K6" s="94"/>
-      <c r="L6" s="94"/>
-      <c r="M6" s="50"/>
-    </row>
-    <row r="7" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="48"/>
-      <c r="C7" s="95"/>
-      <c r="D7" s="95"/>
-      <c r="E7" s="95"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="97"/>
-      <c r="K7" s="97"/>
-      <c r="L7" s="97"/>
-      <c r="M7" s="50"/>
-    </row>
-    <row r="8" spans="2:13" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="48"/>
-      <c r="C8" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="98"/>
-      <c r="J8" s="98"/>
-      <c r="K8" s="98"/>
-      <c r="L8" s="98"/>
-      <c r="M8" s="51"/>
+      <c r="G8" s="78"/>
+      <c r="H8" s="78"/>
+      <c r="I8" s="78"/>
+      <c r="J8" s="78"/>
+      <c r="K8" s="78"/>
+      <c r="L8" s="78"/>
+      <c r="M8" s="44"/>
     </row>
     <row r="9" spans="2:13" ht="6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="48"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6682,148 +6575,148 @@
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
-      <c r="M9" s="52"/>
+      <c r="M9" s="45"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="48"/>
-      <c r="C10" s="99" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="100"/>
-      <c r="E10" s="100"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="101"/>
-      <c r="L10" s="102"/>
-      <c r="M10" s="51"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="79" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="80"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="82"/>
+      <c r="M10" s="44"/>
     </row>
     <row r="11" spans="2:13" ht="3.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="48"/>
-      <c r="C11" s="72"/>
+      <c r="B11" s="42"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="98"/>
-      <c r="K11" s="98"/>
-      <c r="L11" s="103"/>
-      <c r="M11" s="51"/>
+      <c r="G11" s="78"/>
+      <c r="H11" s="78"/>
+      <c r="I11" s="78"/>
+      <c r="J11" s="78"/>
+      <c r="K11" s="78"/>
+      <c r="L11" s="83"/>
+      <c r="M11" s="44"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B12" s="48"/>
-      <c r="C12" s="72" t="s">
-        <v>122</v>
+      <c r="B12" s="42"/>
+      <c r="C12" s="65" t="s">
+        <v>117</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" s="98"/>
-      <c r="H12" s="98"/>
-      <c r="I12" s="98"/>
-      <c r="J12" s="98"/>
-      <c r="K12" s="98"/>
-      <c r="L12" s="103"/>
-      <c r="M12" s="52"/>
+      <c r="G12" s="78"/>
+      <c r="H12" s="78"/>
+      <c r="I12" s="78"/>
+      <c r="J12" s="78"/>
+      <c r="K12" s="78"/>
+      <c r="L12" s="83"/>
+      <c r="M12" s="45"/>
     </row>
     <row r="13" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="48"/>
-      <c r="C13" s="72" t="s">
-        <v>123</v>
+      <c r="B13" s="42"/>
+      <c r="C13" s="65" t="s">
+        <v>118</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" s="98"/>
-      <c r="H13" s="98"/>
-      <c r="I13" s="98"/>
-      <c r="J13" s="98"/>
-      <c r="K13" s="98"/>
-      <c r="L13" s="103"/>
-      <c r="M13" s="52"/>
+      <c r="G13" s="78"/>
+      <c r="H13" s="78"/>
+      <c r="I13" s="78"/>
+      <c r="J13" s="78"/>
+      <c r="K13" s="78"/>
+      <c r="L13" s="83"/>
+      <c r="M13" s="45"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="48"/>
-      <c r="C14" s="104"/>
-      <c r="D14" s="105"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="107"/>
-      <c r="M14" s="52"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="84"/>
+      <c r="D14" s="85"/>
+      <c r="E14" s="85"/>
+      <c r="F14" s="85"/>
+      <c r="G14" s="86"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="86"/>
+      <c r="J14" s="86"/>
+      <c r="K14" s="86"/>
+      <c r="L14" s="87"/>
+      <c r="M14" s="45"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="48"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="98"/>
-      <c r="H15" s="98"/>
-      <c r="I15" s="98"/>
-      <c r="J15" s="98"/>
-      <c r="K15" s="98"/>
-      <c r="L15" s="98"/>
-      <c r="M15" s="52"/>
+      <c r="G15" s="78"/>
+      <c r="H15" s="78"/>
+      <c r="I15" s="78"/>
+      <c r="J15" s="78"/>
+      <c r="K15" s="78"/>
+      <c r="L15" s="78"/>
+      <c r="M15" s="45"/>
     </row>
     <row r="16" spans="2:13" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="48"/>
-      <c r="C16" s="108" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" s="109"/>
-      <c r="E16" s="109"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="109"/>
-      <c r="H16" s="109"/>
-      <c r="I16" s="109"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="109"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="52"/>
+      <c r="B16" s="42"/>
+      <c r="C16" s="118" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="119"/>
+      <c r="J16" s="119"/>
+      <c r="K16" s="119"/>
+      <c r="L16" s="120"/>
+      <c r="M16" s="45"/>
     </row>
     <row r="17" spans="1:45" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="48"/>
+      <c r="B17" s="42"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="98"/>
-      <c r="H17" s="98"/>
-      <c r="I17" s="98"/>
-      <c r="J17" s="98"/>
-      <c r="K17" s="98"/>
-      <c r="L17" s="98"/>
-      <c r="M17" s="52"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="78"/>
+      <c r="L17" s="78"/>
+      <c r="M17" s="45"/>
     </row>
     <row r="18" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="48"/>
-      <c r="C18" s="111" t="s">
-        <v>126</v>
-      </c>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="112"/>
-      <c r="J18" s="112"/>
-      <c r="K18" s="112"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="52"/>
+      <c r="B18" s="42"/>
+      <c r="C18" s="105" t="s">
+        <v>121</v>
+      </c>
+      <c r="D18" s="106"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="106"/>
+      <c r="H18" s="106"/>
+      <c r="I18" s="106"/>
+      <c r="J18" s="106"/>
+      <c r="K18" s="106"/>
+      <c r="L18" s="107"/>
+      <c r="M18" s="45"/>
     </row>
     <row r="19" spans="1:45" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="48"/>
+      <c r="B19" s="42"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
@@ -6834,12 +6727,12 @@
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
-      <c r="M19" s="52"/>
+      <c r="M19" s="45"/>
     </row>
     <row r="20" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B20" s="48"/>
+      <c r="B20" s="42"/>
       <c r="C20" s="2" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -6850,10 +6743,10 @@
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
-      <c r="M20" s="52"/>
+      <c r="M20" s="45"/>
     </row>
     <row r="21" spans="1:45" ht="3" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="48"/>
+      <c r="B21" s="42"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -6864,75 +6757,75 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
       <c r="L21" s="2"/>
-      <c r="M21" s="52"/>
+      <c r="M21" s="45"/>
     </row>
     <row r="22" spans="1:45" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="48"/>
-      <c r="C22" s="114" t="s">
-        <v>128</v>
-      </c>
-      <c r="D22" s="112" t="s">
-        <v>129</v>
-      </c>
-      <c r="E22" s="112"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="112"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="112"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="52"/>
+      <c r="B22" s="42"/>
+      <c r="C22" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="D22" s="106" t="s">
+        <v>124</v>
+      </c>
+      <c r="E22" s="106"/>
+      <c r="F22" s="106"/>
+      <c r="G22" s="106"/>
+      <c r="H22" s="106"/>
+      <c r="I22" s="106"/>
+      <c r="J22" s="106"/>
+      <c r="K22" s="106"/>
+      <c r="L22" s="107"/>
+      <c r="M22" s="45"/>
     </row>
     <row r="23" spans="1:45" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="48"/>
-      <c r="C23" s="115" t="s">
+      <c r="B23" s="42"/>
+      <c r="C23" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="D23" s="116" t="s">
-        <v>130</v>
-      </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="116"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="116"/>
-      <c r="I23" s="116"/>
-      <c r="J23" s="116"/>
-      <c r="K23" s="116"/>
-      <c r="L23" s="117"/>
-      <c r="M23" s="50"/>
+      <c r="D23" s="108" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" s="108"/>
+      <c r="F23" s="108"/>
+      <c r="G23" s="108"/>
+      <c r="H23" s="108"/>
+      <c r="I23" s="108"/>
+      <c r="J23" s="108"/>
+      <c r="K23" s="108"/>
+      <c r="L23" s="109"/>
+      <c r="M23" s="43"/>
     </row>
     <row r="24" spans="1:45" x14ac:dyDescent="0.25">
-      <c r="B24" s="48"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
+      <c r="B24" s="42"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="50"/>
+      <c r="L24" s="46"/>
+      <c r="M24" s="43"/>
     </row>
     <row r="25" spans="1:45" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="54"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="55"/>
-      <c r="J25" s="55"/>
-      <c r="K25" s="55"/>
-      <c r="L25" s="55"/>
-      <c r="M25" s="56"/>
-    </row>
-    <row r="31" spans="1:45" s="60" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="58" t="s">
+      <c r="B25" s="47"/>
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="49"/>
+    </row>
+    <row r="31" spans="1:45" s="53" customFormat="1" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="50"/>
+      <c r="B31" s="51" t="s">
         <v>67</v>
       </c>
       <c r="C31"/>
@@ -6951,173 +6844,173 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
-      <c r="S31" s="59"/>
+      <c r="S31" s="52"/>
       <c r="T31"/>
-      <c r="U31" s="59"/>
-    </row>
-    <row r="32" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="61" t="s">
+      <c r="U31" s="52"/>
+    </row>
+    <row r="32" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="50"/>
+      <c r="B32" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="63"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="63"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="62"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="64"/>
-    </row>
-    <row r="33" spans="1:45" s="60" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="65">
+      <c r="D32" s="55"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="55"/>
+      <c r="J32" s="55"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
+      <c r="M32" s="55"/>
+      <c r="N32" s="55"/>
+      <c r="O32" s="55"/>
+      <c r="P32" s="55"/>
+      <c r="Q32" s="55"/>
+      <c r="R32" s="55"/>
+      <c r="S32" s="56"/>
+      <c r="T32" s="55"/>
+      <c r="U32" s="56"/>
+      <c r="V32" s="55"/>
+      <c r="W32" s="55"/>
+      <c r="X32" s="55"/>
+      <c r="Y32" s="55"/>
+      <c r="Z32" s="55"/>
+      <c r="AA32" s="55"/>
+      <c r="AB32" s="55"/>
+      <c r="AC32" s="55"/>
+      <c r="AD32" s="55"/>
+      <c r="AE32" s="55"/>
+      <c r="AF32" s="55"/>
+      <c r="AG32" s="55"/>
+      <c r="AH32" s="55"/>
+      <c r="AI32" s="55"/>
+      <c r="AJ32" s="55"/>
+      <c r="AK32" s="55"/>
+      <c r="AL32" s="55"/>
+      <c r="AM32" s="55"/>
+      <c r="AN32" s="55"/>
+      <c r="AO32" s="55"/>
+      <c r="AP32" s="55"/>
+      <c r="AQ32" s="55"/>
+      <c r="AR32" s="55"/>
+      <c r="AS32" s="57"/>
+    </row>
+    <row r="33" spans="1:45" s="53" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="50"/>
+      <c r="B33" s="58">
         <v>1</v>
       </c>
-      <c r="C33" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="D33" s="119"/>
-      <c r="E33" s="119"/>
-      <c r="F33" s="119"/>
-      <c r="G33" s="119"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="119"/>
-      <c r="K33" s="119"/>
-      <c r="L33" s="119"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="119"/>
-      <c r="O33" s="119"/>
-      <c r="P33" s="119"/>
-      <c r="Q33" s="119"/>
-      <c r="R33" s="119"/>
-      <c r="S33" s="119"/>
-      <c r="T33" s="119"/>
-      <c r="U33" s="119"/>
-      <c r="V33" s="119"/>
-      <c r="W33" s="119"/>
-      <c r="X33" s="119"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="119"/>
-      <c r="AA33" s="119"/>
-      <c r="AB33" s="119"/>
-      <c r="AC33" s="119"/>
-      <c r="AD33" s="119"/>
-      <c r="AE33" s="119"/>
-      <c r="AF33" s="119"/>
-      <c r="AG33" s="119"/>
-      <c r="AH33" s="119"/>
-      <c r="AI33" s="119"/>
-      <c r="AJ33" s="119"/>
-      <c r="AK33" s="119"/>
-      <c r="AL33" s="119"/>
-      <c r="AM33" s="119"/>
-      <c r="AN33" s="119"/>
-      <c r="AO33" s="119"/>
-      <c r="AP33" s="119"/>
-      <c r="AQ33" s="119"/>
-      <c r="AR33" s="119"/>
-      <c r="AS33" s="120"/>
-    </row>
-    <row r="34" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="68">
+      <c r="C33" s="110" t="s">
+        <v>126</v>
+      </c>
+      <c r="D33" s="111"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="111"/>
+      <c r="Q33" s="111"/>
+      <c r="R33" s="111"/>
+      <c r="S33" s="111"/>
+      <c r="T33" s="111"/>
+      <c r="U33" s="111"/>
+      <c r="V33" s="111"/>
+      <c r="W33" s="111"/>
+      <c r="X33" s="111"/>
+      <c r="Y33" s="111"/>
+      <c r="Z33" s="111"/>
+      <c r="AA33" s="111"/>
+      <c r="AB33" s="111"/>
+      <c r="AC33" s="111"/>
+      <c r="AD33" s="111"/>
+      <c r="AE33" s="111"/>
+      <c r="AF33" s="111"/>
+      <c r="AG33" s="111"/>
+      <c r="AH33" s="111"/>
+      <c r="AI33" s="111"/>
+      <c r="AJ33" s="111"/>
+      <c r="AK33" s="111"/>
+      <c r="AL33" s="111"/>
+      <c r="AM33" s="111"/>
+      <c r="AN33" s="111"/>
+      <c r="AO33" s="111"/>
+      <c r="AP33" s="111"/>
+      <c r="AQ33" s="111"/>
+      <c r="AR33" s="111"/>
+      <c r="AS33" s="112"/>
+    </row>
+    <row r="34" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="50"/>
+      <c r="B34" s="61">
         <v>2</v>
       </c>
-      <c r="C34" s="69" t="s">
-        <v>132</v>
-      </c>
-      <c r="D34" s="69"/>
-      <c r="E34" s="69"/>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
-      <c r="I34" s="69"/>
-      <c r="J34" s="69"/>
-      <c r="K34" s="69"/>
-      <c r="L34" s="69"/>
-      <c r="M34" s="69"/>
-      <c r="N34" s="69"/>
-      <c r="O34" s="70"/>
+      <c r="C34" s="62" t="s">
+        <v>127</v>
+      </c>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="63"/>
       <c r="P34" s="2"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
-      <c r="S34" s="66"/>
+      <c r="S34" s="59"/>
       <c r="T34" s="2"/>
-      <c r="U34" s="66"/>
-      <c r="V34" s="66"/>
-      <c r="W34" s="66"/>
-      <c r="X34" s="66"/>
-      <c r="Y34" s="66"/>
-      <c r="Z34" s="66"/>
-      <c r="AA34" s="66"/>
-      <c r="AB34" s="66"/>
-      <c r="AC34" s="66"/>
-      <c r="AD34" s="66"/>
-      <c r="AE34" s="66"/>
-      <c r="AF34" s="66"/>
-      <c r="AG34" s="66"/>
-      <c r="AH34" s="66"/>
-      <c r="AI34" s="66"/>
-      <c r="AJ34" s="66"/>
-      <c r="AK34" s="66"/>
-      <c r="AL34" s="66"/>
-      <c r="AM34" s="66"/>
-      <c r="AN34" s="66"/>
-      <c r="AO34" s="66"/>
-      <c r="AP34" s="66"/>
-      <c r="AQ34" s="66"/>
-      <c r="AR34" s="66"/>
-      <c r="AS34" s="67"/>
-    </row>
-    <row r="35" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="60"/>
+    </row>
+    <row r="35" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="50"/>
       <c r="B35" s="1">
         <v>3</v>
       </c>
-      <c r="C35" s="71" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="66"/>
-      <c r="E35" s="66"/>
+      <c r="C35" s="64" t="s">
+        <v>128</v>
+      </c>
+      <c r="D35" s="59"/>
+      <c r="E35" s="59"/>
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
@@ -7131,41 +7024,41 @@
       <c r="P35" s="2"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
-      <c r="S35" s="66"/>
+      <c r="S35" s="59"/>
       <c r="T35" s="2"/>
-      <c r="U35" s="66"/>
-      <c r="V35" s="66"/>
-      <c r="W35" s="66"/>
-      <c r="X35" s="66"/>
-      <c r="Y35" s="66"/>
-      <c r="Z35" s="66"/>
-      <c r="AA35" s="66"/>
-      <c r="AB35" s="66"/>
-      <c r="AC35" s="66"/>
-      <c r="AD35" s="66"/>
-      <c r="AE35" s="66"/>
-      <c r="AF35" s="66"/>
-      <c r="AG35" s="66"/>
-      <c r="AH35" s="66"/>
-      <c r="AI35" s="66"/>
-      <c r="AJ35" s="66"/>
-      <c r="AK35" s="66"/>
-      <c r="AL35" s="66"/>
-      <c r="AM35" s="66"/>
-      <c r="AN35" s="66"/>
-      <c r="AO35" s="66"/>
-      <c r="AP35" s="66"/>
-      <c r="AQ35" s="66"/>
-      <c r="AR35" s="66"/>
-      <c r="AS35" s="67"/>
-    </row>
-    <row r="36" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
+      <c r="U35" s="59"/>
+      <c r="V35" s="59"/>
+      <c r="W35" s="59"/>
+      <c r="X35" s="59"/>
+      <c r="Y35" s="59"/>
+      <c r="Z35" s="59"/>
+      <c r="AA35" s="59"/>
+      <c r="AB35" s="59"/>
+      <c r="AC35" s="59"/>
+      <c r="AD35" s="59"/>
+      <c r="AE35" s="59"/>
+      <c r="AF35" s="59"/>
+      <c r="AG35" s="59"/>
+      <c r="AH35" s="59"/>
+      <c r="AI35" s="59"/>
+      <c r="AJ35" s="59"/>
+      <c r="AK35" s="59"/>
+      <c r="AL35" s="59"/>
+      <c r="AM35" s="59"/>
+      <c r="AN35" s="59"/>
+      <c r="AO35" s="59"/>
+      <c r="AP35" s="59"/>
+      <c r="AQ35" s="59"/>
+      <c r="AR35" s="59"/>
+      <c r="AS35" s="60"/>
+    </row>
+    <row r="36" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="50"/>
       <c r="B36" s="1">
         <v>4</v>
       </c>
-      <c r="C36" s="72" t="s">
-        <v>134</v>
+      <c r="C36" s="65" t="s">
+        <v>129</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -7182,38 +7075,38 @@
       <c r="P36" s="2"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
-      <c r="S36" s="66"/>
+      <c r="S36" s="59"/>
       <c r="T36" s="2"/>
-      <c r="U36" s="66"/>
-      <c r="V36" s="66"/>
-      <c r="W36" s="66"/>
-      <c r="X36" s="66"/>
-      <c r="Y36" s="66"/>
-      <c r="Z36" s="66"/>
-      <c r="AA36" s="66"/>
-      <c r="AB36" s="66"/>
-      <c r="AC36" s="66"/>
-      <c r="AD36" s="66"/>
-      <c r="AE36" s="66"/>
-      <c r="AF36" s="66"/>
-      <c r="AG36" s="66"/>
-      <c r="AH36" s="66"/>
-      <c r="AI36" s="66"/>
-      <c r="AJ36" s="66"/>
-      <c r="AK36" s="66"/>
-      <c r="AL36" s="66"/>
-      <c r="AM36" s="66"/>
-      <c r="AN36" s="66"/>
-      <c r="AO36" s="66"/>
-      <c r="AP36" s="66"/>
-      <c r="AQ36" s="66"/>
-      <c r="AR36" s="66"/>
-      <c r="AS36" s="67"/>
-    </row>
-    <row r="37" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="73"/>
-      <c r="C37" s="72"/>
+      <c r="U36" s="59"/>
+      <c r="V36" s="59"/>
+      <c r="W36" s="59"/>
+      <c r="X36" s="59"/>
+      <c r="Y36" s="59"/>
+      <c r="Z36" s="59"/>
+      <c r="AA36" s="59"/>
+      <c r="AB36" s="59"/>
+      <c r="AC36" s="59"/>
+      <c r="AD36" s="59"/>
+      <c r="AE36" s="59"/>
+      <c r="AF36" s="59"/>
+      <c r="AG36" s="59"/>
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="59"/>
+      <c r="AK36" s="59"/>
+      <c r="AL36" s="59"/>
+      <c r="AM36" s="59"/>
+      <c r="AN36" s="59"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="59"/>
+      <c r="AR36" s="59"/>
+      <c r="AS36" s="60"/>
+    </row>
+    <row r="37" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="50"/>
+      <c r="B37" s="66"/>
+      <c r="C37" s="65"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
@@ -7229,46 +7122,46 @@
       <c r="P37" s="2"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
-      <c r="S37" s="66"/>
+      <c r="S37" s="59"/>
       <c r="T37" s="2"/>
-      <c r="U37" s="66"/>
-      <c r="V37" s="66"/>
-      <c r="W37" s="66"/>
-      <c r="X37" s="66"/>
-      <c r="Y37" s="66"/>
-      <c r="Z37" s="66"/>
-      <c r="AA37" s="66"/>
-      <c r="AB37" s="66"/>
-      <c r="AC37" s="66"/>
-      <c r="AD37" s="66"/>
-      <c r="AE37" s="66"/>
-      <c r="AF37" s="66"/>
-      <c r="AG37" s="66"/>
-      <c r="AH37" s="66"/>
-      <c r="AI37" s="66"/>
-      <c r="AJ37" s="66"/>
-      <c r="AK37" s="66"/>
-      <c r="AL37" s="66"/>
-      <c r="AM37" s="66"/>
-      <c r="AN37" s="66"/>
-      <c r="AO37" s="66"/>
-      <c r="AP37" s="66"/>
-      <c r="AQ37" s="66"/>
-      <c r="AR37" s="66"/>
-      <c r="AS37" s="67"/>
-    </row>
-    <row r="38" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
+      <c r="U37" s="59"/>
+      <c r="V37" s="59"/>
+      <c r="W37" s="59"/>
+      <c r="X37" s="59"/>
+      <c r="Y37" s="59"/>
+      <c r="Z37" s="59"/>
+      <c r="AA37" s="59"/>
+      <c r="AB37" s="59"/>
+      <c r="AC37" s="59"/>
+      <c r="AD37" s="59"/>
+      <c r="AE37" s="59"/>
+      <c r="AF37" s="59"/>
+      <c r="AG37" s="59"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="59"/>
+      <c r="AM37" s="59"/>
+      <c r="AN37" s="59"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="59"/>
+      <c r="AR37" s="59"/>
+      <c r="AS37" s="60"/>
+    </row>
+    <row r="38" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="50"/>
       <c r="B38" s="1"/>
-      <c r="C38" s="72"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
-      <c r="G38" s="66"/>
-      <c r="H38" s="66"/>
-      <c r="I38" s="66"/>
-      <c r="J38" s="66"/>
-      <c r="K38" s="66"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="59"/>
+      <c r="K38" s="59"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -7276,38 +7169,38 @@
       <c r="P38" s="2"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
-      <c r="S38" s="66"/>
+      <c r="S38" s="59"/>
       <c r="T38" s="2"/>
-      <c r="U38" s="66"/>
-      <c r="V38" s="66"/>
-      <c r="W38" s="66"/>
-      <c r="X38" s="66"/>
-      <c r="Y38" s="66"/>
-      <c r="Z38" s="66"/>
-      <c r="AA38" s="66"/>
-      <c r="AB38" s="66"/>
-      <c r="AC38" s="66"/>
-      <c r="AD38" s="66"/>
-      <c r="AE38" s="66"/>
-      <c r="AF38" s="66"/>
-      <c r="AG38" s="66"/>
-      <c r="AH38" s="66"/>
-      <c r="AI38" s="66"/>
-      <c r="AJ38" s="66"/>
-      <c r="AK38" s="66"/>
-      <c r="AL38" s="66"/>
-      <c r="AM38" s="66"/>
-      <c r="AN38" s="66"/>
-      <c r="AO38" s="66"/>
-      <c r="AP38" s="66"/>
-      <c r="AQ38" s="66"/>
-      <c r="AR38" s="66"/>
-      <c r="AS38" s="67"/>
-    </row>
-    <row r="39" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="74"/>
-      <c r="C39" s="72"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="59"/>
+      <c r="AF38" s="59"/>
+      <c r="AG38" s="59"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="59"/>
+      <c r="AR38" s="59"/>
+      <c r="AS38" s="60"/>
+    </row>
+    <row r="39" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="50"/>
+      <c r="B39" s="67"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
@@ -7323,38 +7216,38 @@
       <c r="P39" s="2"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
-      <c r="S39" s="66"/>
+      <c r="S39" s="59"/>
       <c r="T39" s="2"/>
-      <c r="U39" s="66"/>
-      <c r="V39" s="66"/>
-      <c r="W39" s="66"/>
-      <c r="X39" s="66"/>
-      <c r="Y39" s="66"/>
-      <c r="Z39" s="66"/>
-      <c r="AA39" s="66"/>
-      <c r="AB39" s="66"/>
-      <c r="AC39" s="66"/>
-      <c r="AD39" s="66"/>
-      <c r="AE39" s="66"/>
-      <c r="AF39" s="66"/>
-      <c r="AG39" s="66"/>
-      <c r="AH39" s="66"/>
-      <c r="AI39" s="66"/>
-      <c r="AJ39" s="66"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="66"/>
-      <c r="AM39" s="66"/>
-      <c r="AN39" s="66"/>
-      <c r="AO39" s="66"/>
-      <c r="AP39" s="66"/>
-      <c r="AQ39" s="66"/>
-      <c r="AR39" s="66"/>
-      <c r="AS39" s="67"/>
-    </row>
-    <row r="40" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
+      <c r="U39" s="59"/>
+      <c r="V39" s="59"/>
+      <c r="W39" s="59"/>
+      <c r="X39" s="59"/>
+      <c r="Y39" s="59"/>
+      <c r="Z39" s="59"/>
+      <c r="AA39" s="59"/>
+      <c r="AB39" s="59"/>
+      <c r="AC39" s="59"/>
+      <c r="AD39" s="59"/>
+      <c r="AE39" s="59"/>
+      <c r="AF39" s="59"/>
+      <c r="AG39" s="59"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="59"/>
+      <c r="AM39" s="59"/>
+      <c r="AN39" s="59"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="59"/>
+      <c r="AR39" s="59"/>
+      <c r="AS39" s="60"/>
+    </row>
+    <row r="40" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="50"/>
       <c r="B40" s="1"/>
-      <c r="C40" s="72"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
@@ -7370,37 +7263,37 @@
       <c r="P40" s="2"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
-      <c r="S40" s="66"/>
+      <c r="S40" s="59"/>
       <c r="T40" s="2"/>
-      <c r="U40" s="66"/>
-      <c r="V40" s="66"/>
-      <c r="W40" s="66"/>
-      <c r="X40" s="66"/>
-      <c r="Y40" s="66"/>
-      <c r="Z40" s="66"/>
-      <c r="AA40" s="66"/>
-      <c r="AB40" s="66"/>
-      <c r="AC40" s="66"/>
-      <c r="AD40" s="66"/>
-      <c r="AE40" s="66"/>
-      <c r="AF40" s="66"/>
-      <c r="AG40" s="66"/>
-      <c r="AH40" s="66"/>
-      <c r="AI40" s="66"/>
-      <c r="AJ40" s="66"/>
-      <c r="AK40" s="66"/>
-      <c r="AL40" s="66"/>
-      <c r="AM40" s="66"/>
-      <c r="AN40" s="66"/>
-      <c r="AO40" s="66"/>
-      <c r="AP40" s="66"/>
-      <c r="AQ40" s="66"/>
-      <c r="AR40" s="66"/>
-      <c r="AS40" s="67"/>
-    </row>
-    <row r="41" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="65"/>
+      <c r="U40" s="59"/>
+      <c r="V40" s="59"/>
+      <c r="W40" s="59"/>
+      <c r="X40" s="59"/>
+      <c r="Y40" s="59"/>
+      <c r="Z40" s="59"/>
+      <c r="AA40" s="59"/>
+      <c r="AB40" s="59"/>
+      <c r="AC40" s="59"/>
+      <c r="AD40" s="59"/>
+      <c r="AE40" s="59"/>
+      <c r="AF40" s="59"/>
+      <c r="AG40" s="59"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="59"/>
+      <c r="AM40" s="59"/>
+      <c r="AN40" s="59"/>
+      <c r="AO40" s="59"/>
+      <c r="AP40" s="59"/>
+      <c r="AQ40" s="59"/>
+      <c r="AR40" s="59"/>
+      <c r="AS40" s="60"/>
+    </row>
+    <row r="41" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="50"/>
+      <c r="B41" s="58"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -7410,44 +7303,44 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="66"/>
+      <c r="L41" s="59"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" s="2"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
-      <c r="S41" s="66"/>
+      <c r="S41" s="59"/>
       <c r="T41" s="2"/>
-      <c r="U41" s="66"/>
-      <c r="V41" s="66"/>
-      <c r="W41" s="66"/>
-      <c r="X41" s="66"/>
-      <c r="Y41" s="66"/>
-      <c r="Z41" s="66"/>
-      <c r="AA41" s="66"/>
-      <c r="AB41" s="66"/>
-      <c r="AC41" s="66"/>
-      <c r="AD41" s="66"/>
-      <c r="AE41" s="66"/>
-      <c r="AF41" s="66"/>
-      <c r="AG41" s="66"/>
-      <c r="AH41" s="66"/>
-      <c r="AI41" s="66"/>
-      <c r="AJ41" s="66"/>
-      <c r="AK41" s="66"/>
-      <c r="AL41" s="66"/>
-      <c r="AM41" s="66"/>
-      <c r="AN41" s="66"/>
-      <c r="AO41" s="66"/>
-      <c r="AP41" s="66"/>
-      <c r="AQ41" s="66"/>
-      <c r="AR41" s="66"/>
-      <c r="AS41" s="67"/>
-    </row>
-    <row r="42" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="65"/>
+      <c r="U41" s="59"/>
+      <c r="V41" s="59"/>
+      <c r="W41" s="59"/>
+      <c r="X41" s="59"/>
+      <c r="Y41" s="59"/>
+      <c r="Z41" s="59"/>
+      <c r="AA41" s="59"/>
+      <c r="AB41" s="59"/>
+      <c r="AC41" s="59"/>
+      <c r="AD41" s="59"/>
+      <c r="AE41" s="59"/>
+      <c r="AF41" s="59"/>
+      <c r="AG41" s="59"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="59"/>
+      <c r="AM41" s="59"/>
+      <c r="AN41" s="59"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="59"/>
+      <c r="AR41" s="59"/>
+      <c r="AS41" s="60"/>
+    </row>
+    <row r="42" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="50"/>
+      <c r="B42" s="58"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
@@ -7464,37 +7357,37 @@
       <c r="P42" s="2"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
-      <c r="S42" s="66"/>
+      <c r="S42" s="59"/>
       <c r="T42" s="2"/>
-      <c r="U42" s="66"/>
-      <c r="V42" s="66"/>
-      <c r="W42" s="66"/>
-      <c r="X42" s="66"/>
-      <c r="Y42" s="66"/>
-      <c r="Z42" s="66"/>
-      <c r="AA42" s="66"/>
-      <c r="AB42" s="66"/>
-      <c r="AC42" s="66"/>
-      <c r="AD42" s="66"/>
-      <c r="AE42" s="66"/>
-      <c r="AF42" s="66"/>
-      <c r="AG42" s="66"/>
-      <c r="AH42" s="66"/>
-      <c r="AI42" s="66"/>
-      <c r="AJ42" s="66"/>
-      <c r="AK42" s="66"/>
-      <c r="AL42" s="66"/>
-      <c r="AM42" s="66"/>
-      <c r="AN42" s="66"/>
-      <c r="AO42" s="66"/>
-      <c r="AP42" s="66"/>
-      <c r="AQ42" s="66"/>
-      <c r="AR42" s="66"/>
-      <c r="AS42" s="67"/>
-    </row>
-    <row r="43" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="65"/>
+      <c r="U42" s="59"/>
+      <c r="V42" s="59"/>
+      <c r="W42" s="59"/>
+      <c r="X42" s="59"/>
+      <c r="Y42" s="59"/>
+      <c r="Z42" s="59"/>
+      <c r="AA42" s="59"/>
+      <c r="AB42" s="59"/>
+      <c r="AC42" s="59"/>
+      <c r="AD42" s="59"/>
+      <c r="AE42" s="59"/>
+      <c r="AF42" s="59"/>
+      <c r="AG42" s="59"/>
+      <c r="AH42" s="59"/>
+      <c r="AI42" s="59"/>
+      <c r="AJ42" s="59"/>
+      <c r="AK42" s="59"/>
+      <c r="AL42" s="59"/>
+      <c r="AM42" s="59"/>
+      <c r="AN42" s="59"/>
+      <c r="AO42" s="59"/>
+      <c r="AP42" s="59"/>
+      <c r="AQ42" s="59"/>
+      <c r="AR42" s="59"/>
+      <c r="AS42" s="60"/>
+    </row>
+    <row r="43" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="50"/>
+      <c r="B43" s="58"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
@@ -7511,83 +7404,83 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
-      <c r="S43" s="66"/>
+      <c r="S43" s="59"/>
       <c r="T43" s="2"/>
-      <c r="U43" s="66"/>
-      <c r="V43" s="66"/>
-      <c r="W43" s="66"/>
-      <c r="X43" s="66"/>
-      <c r="Y43" s="66"/>
-      <c r="Z43" s="66"/>
-      <c r="AA43" s="66"/>
-      <c r="AB43" s="66"/>
-      <c r="AC43" s="66"/>
-      <c r="AD43" s="66"/>
-      <c r="AE43" s="66"/>
-      <c r="AF43" s="66"/>
-      <c r="AG43" s="66"/>
-      <c r="AH43" s="66"/>
-      <c r="AI43" s="66"/>
-      <c r="AJ43" s="66"/>
-      <c r="AK43" s="66"/>
-      <c r="AL43" s="66"/>
-      <c r="AM43" s="66"/>
-      <c r="AN43" s="66"/>
-      <c r="AO43" s="66"/>
-      <c r="AP43" s="66"/>
-      <c r="AQ43" s="66"/>
-      <c r="AR43" s="66"/>
-      <c r="AS43" s="67"/>
-    </row>
-    <row r="44" spans="1:45" s="60" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="57"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="76"/>
-      <c r="D44" s="76"/>
-      <c r="E44" s="76"/>
-      <c r="F44" s="76"/>
-      <c r="G44" s="76"/>
-      <c r="H44" s="76"/>
-      <c r="I44" s="76"/>
-      <c r="J44" s="76"/>
-      <c r="K44" s="76"/>
-      <c r="L44" s="76"/>
-      <c r="M44" s="76"/>
-      <c r="N44" s="76"/>
-      <c r="O44" s="76"/>
-      <c r="P44" s="76"/>
-      <c r="Q44" s="76"/>
-      <c r="R44" s="76"/>
-      <c r="S44" s="77"/>
-      <c r="T44" s="77"/>
-      <c r="U44" s="77"/>
-      <c r="V44" s="77"/>
-      <c r="W44" s="77"/>
-      <c r="X44" s="77"/>
-      <c r="Y44" s="77"/>
-      <c r="Z44" s="77"/>
-      <c r="AA44" s="77"/>
-      <c r="AB44" s="77"/>
-      <c r="AC44" s="77"/>
-      <c r="AD44" s="77"/>
-      <c r="AE44" s="77"/>
-      <c r="AF44" s="77"/>
-      <c r="AG44" s="77"/>
-      <c r="AH44" s="77"/>
-      <c r="AI44" s="77"/>
-      <c r="AJ44" s="77"/>
-      <c r="AK44" s="77"/>
-      <c r="AL44" s="77"/>
-      <c r="AM44" s="77"/>
-      <c r="AN44" s="77"/>
-      <c r="AO44" s="77"/>
-      <c r="AP44" s="77"/>
-      <c r="AQ44" s="77"/>
-      <c r="AR44" s="77"/>
-      <c r="AS44" s="78"/>
-    </row>
-    <row r="45" spans="1:45" s="60" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
+      <c r="U43" s="59"/>
+      <c r="V43" s="59"/>
+      <c r="W43" s="59"/>
+      <c r="X43" s="59"/>
+      <c r="Y43" s="59"/>
+      <c r="Z43" s="59"/>
+      <c r="AA43" s="59"/>
+      <c r="AB43" s="59"/>
+      <c r="AC43" s="59"/>
+      <c r="AD43" s="59"/>
+      <c r="AE43" s="59"/>
+      <c r="AF43" s="59"/>
+      <c r="AG43" s="59"/>
+      <c r="AH43" s="59"/>
+      <c r="AI43" s="59"/>
+      <c r="AJ43" s="59"/>
+      <c r="AK43" s="59"/>
+      <c r="AL43" s="59"/>
+      <c r="AM43" s="59"/>
+      <c r="AN43" s="59"/>
+      <c r="AO43" s="59"/>
+      <c r="AP43" s="59"/>
+      <c r="AQ43" s="59"/>
+      <c r="AR43" s="59"/>
+      <c r="AS43" s="60"/>
+    </row>
+    <row r="44" spans="1:45" s="53" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="50"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="69"/>
+      <c r="F44" s="69"/>
+      <c r="G44" s="69"/>
+      <c r="H44" s="69"/>
+      <c r="I44" s="69"/>
+      <c r="J44" s="69"/>
+      <c r="K44" s="69"/>
+      <c r="L44" s="69"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="69"/>
+      <c r="O44" s="69"/>
+      <c r="P44" s="69"/>
+      <c r="Q44" s="69"/>
+      <c r="R44" s="69"/>
+      <c r="S44" s="70"/>
+      <c r="T44" s="70"/>
+      <c r="U44" s="70"/>
+      <c r="V44" s="70"/>
+      <c r="W44" s="70"/>
+      <c r="X44" s="70"/>
+      <c r="Y44" s="70"/>
+      <c r="Z44" s="70"/>
+      <c r="AA44" s="70"/>
+      <c r="AB44" s="70"/>
+      <c r="AC44" s="70"/>
+      <c r="AD44" s="70"/>
+      <c r="AE44" s="70"/>
+      <c r="AF44" s="70"/>
+      <c r="AG44" s="70"/>
+      <c r="AH44" s="70"/>
+      <c r="AI44" s="70"/>
+      <c r="AJ44" s="70"/>
+      <c r="AK44" s="70"/>
+      <c r="AL44" s="70"/>
+      <c r="AM44" s="70"/>
+      <c r="AN44" s="70"/>
+      <c r="AO44" s="70"/>
+      <c r="AP44" s="70"/>
+      <c r="AQ44" s="70"/>
+      <c r="AR44" s="70"/>
+      <c r="AS44" s="71"/>
+    </row>
+    <row r="45" spans="1:45" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="50"/>
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45"/>
@@ -7605,9 +7498,9 @@
       <c r="P45"/>
       <c r="Q45"/>
       <c r="R45"/>
-      <c r="S45" s="66"/>
+      <c r="S45" s="59"/>
       <c r="T45" s="2"/>
-      <c r="U45" s="66"/>
+      <c r="U45" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -7632,8 +7525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -7651,15 +7544,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="0.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:8" ht="18" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
+      <c r="B2" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="93"/>
     </row>
     <row r="3" spans="2:8" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="8" t="s">
@@ -7667,7 +7560,7 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="9" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -7679,8 +7572,8 @@
         <v>9</v>
       </c>
       <c r="C4" s="12"/>
-      <c r="D4" s="79" t="s">
-        <v>174</v>
+      <c r="D4" s="72" t="s">
+        <v>169</v>
       </c>
       <c r="E4" s="12"/>
       <c r="F4" s="12"/>
@@ -7715,13 +7608,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F6" s="16" t="s">
         <v>18</v>
@@ -7738,10 +7631,10 @@
         <v>2</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>80</v>
@@ -7753,7 +7646,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="18" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.2">
@@ -7761,10 +7654,10 @@
         <v>3</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>80</v>
@@ -7776,7 +7669,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="18" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.2">
@@ -7784,13 +7677,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>19</v>
@@ -7799,7 +7692,7 @@
         <v>19</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.2">
@@ -7807,13 +7700,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F10" s="16" t="s">
         <v>19</v>
@@ -7822,7 +7715,7 @@
         <v>19</v>
       </c>
       <c r="H10" s="18" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.2">
@@ -7830,13 +7723,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F11" s="16" t="s">
         <v>19</v>
@@ -7845,7 +7738,7 @@
         <v>19</v>
       </c>
       <c r="H11" s="17" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.2">
@@ -7853,13 +7746,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>19</v>
@@ -7868,7 +7761,7 @@
         <v>19</v>
       </c>
       <c r="H12" s="17" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.2">
@@ -7876,13 +7769,13 @@
         <v>8</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F13" s="16" t="s">
         <v>19</v>
@@ -7891,7 +7784,7 @@
         <v>19</v>
       </c>
       <c r="H13" s="17" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.2">
@@ -7899,13 +7792,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="D14" s="16" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F14" s="16" t="s">
         <v>19</v>
@@ -7914,7 +7807,7 @@
         <v>19</v>
       </c>
       <c r="H14" s="17" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.2">
@@ -7922,13 +7815,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="16" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="D15" s="16" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F15" s="16" t="s">
         <v>19</v>
@@ -7937,7 +7830,7 @@
         <v>19</v>
       </c>
       <c r="H15" s="17" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.2">
@@ -7945,10 +7838,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>80</v>
@@ -7960,7 +7853,7 @@
         <v>19</v>
       </c>
       <c r="H16" s="17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -7968,13 +7861,13 @@
         <v>12</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F17" s="16" t="s">
         <v>19</v>
@@ -7983,7 +7876,7 @@
         <v>19</v>
       </c>
       <c r="H17" s="17" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -7991,13 +7884,13 @@
         <v>13</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>19</v>
@@ -8006,7 +7899,7 @@
         <v>19</v>
       </c>
       <c r="H18" s="17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -8127,10 +8020,10 @@
         <v>1</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>57</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="15" x14ac:dyDescent="0.25">
@@ -8138,25 +8031,18 @@
         <v>2</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
-      </c>
-      <c r="D34" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="B35" s="80">
+        <v>58</v>
+      </c>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="2:8" s="74" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B35" s="73">
         <v>3</v>
       </c>
-      <c r="C35" s="80" t="s">
-        <v>91</v>
-      </c>
-      <c r="D35" s="80" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="81" t="s">
-        <v>93</v>
-      </c>
+      <c r="C35" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35"/>
     </row>
     <row r="36" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B36">
@@ -8180,7 +8066,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.2">
@@ -8188,15 +8074,12 @@
         <v>6</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B40" s="7">
         <v>7</v>
-      </c>
-      <c r="C40" s="7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.2">
@@ -8219,7 +8102,7 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D43" t="s">
         <v>45</v>
@@ -8230,7 +8113,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D44" t="s">
         <v>45</v>
